--- a/excel for project.xlsx
+++ b/excel for project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Wamp\www\FinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3636307E-B173-463F-86D1-1CC868DA1E5B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22489288-662A-4EE2-BE4A-C8CC892E45E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="37710" windowHeight="21840" activeTab="5" xr2:uid="{91E74DE7-089F-4AFC-8C4E-811407D5114D}"/>
+    <workbookView xWindow="4965" yWindow="2820" windowWidth="26940" windowHeight="13845" xr2:uid="{91E74DE7-089F-4AFC-8C4E-811407D5114D}"/>
   </bookViews>
   <sheets>
     <sheet name="Logic" sheetId="1" r:id="rId1"/>
@@ -18,11 +18,11 @@
     <sheet name="Dumb AI" sheetId="5" r:id="rId3"/>
     <sheet name="Humans" sheetId="4" r:id="rId4"/>
     <sheet name="Graphs" sheetId="6" r:id="rId5"/>
-    <sheet name="Personal Attempts 100" sheetId="7" r:id="rId6"/>
-    <sheet name="Emails" sheetId="3" r:id="rId7"/>
+    <sheet name="Project Management" sheetId="8" r:id="rId6"/>
+    <sheet name="Personal Attempts 100" sheetId="7" r:id="rId7"/>
+    <sheet name="Emails" sheetId="3" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="155">
   <si>
     <t>Output</t>
   </si>
@@ -231,6 +231,282 @@
   <si>
     <t>Human Average</t>
   </si>
+  <si>
+    <t>what is learning</t>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t>neural networks</t>
+  </si>
+  <si>
+    <t>Video games and AI</t>
+  </si>
+  <si>
+    <t>define artificial intellegence</t>
+  </si>
+  <si>
+    <t>turing test</t>
+  </si>
+  <si>
+    <t>oxford dictionary</t>
+  </si>
+  <si>
+    <t>https://ebookcentral-proquest-com.ezproxy.brighton.ac.uk/lib/ubrighton/reader.action?docID=325044&amp;ppg=16</t>
+  </si>
+  <si>
+    <t>https://www-sciencedirect-com.ezproxy.brighton.ac.uk/topics/engineering/artificial-neural-network</t>
+  </si>
+  <si>
+    <t>talk about applications</t>
+  </si>
+  <si>
+    <t>complex data analysis</t>
+  </si>
+  <si>
+    <t>meaning from randomess</t>
+  </si>
+  <si>
+    <t>Simple AI in games</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complex AI </t>
+  </si>
+  <si>
+    <t>Hello Neighbour</t>
+  </si>
+  <si>
+    <t>Neural networks in games</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>Week 1</t>
+  </si>
+  <si>
+    <t>Week 2</t>
+  </si>
+  <si>
+    <t>Week 3</t>
+  </si>
+  <si>
+    <t>Week 4</t>
+  </si>
+  <si>
+    <t>Game Development</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Build World</t>
+  </si>
+  <si>
+    <t>Player Class</t>
+  </si>
+  <si>
+    <t>Physics</t>
+  </si>
+  <si>
+    <t>Camera Movement</t>
+  </si>
+  <si>
+    <t>Menu Screens</t>
+  </si>
+  <si>
+    <t>Smart AI Modes</t>
+  </si>
+  <si>
+    <t>Level Design</t>
+  </si>
+  <si>
+    <t>Tilemap Reader</t>
+  </si>
+  <si>
+    <t>AI Development</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Report</t>
+  </si>
+  <si>
+    <t>Gathering Results</t>
+  </si>
+  <si>
+    <t>Presentation</t>
+  </si>
+  <si>
+    <t>Neural network generation</t>
+  </si>
+  <si>
+    <t>Scan system</t>
+  </si>
+  <si>
+    <t>Population Checkpointing</t>
+  </si>
+  <si>
+    <t>Neural Network configuration</t>
+  </si>
+  <si>
+    <t>Researching</t>
+  </si>
+  <si>
+    <t>Write Introduction</t>
+  </si>
+  <si>
+    <t>Research Writeup</t>
+  </si>
+  <si>
+    <t>Write Methodology</t>
+  </si>
+  <si>
+    <t>Write Description</t>
+  </si>
+  <si>
+    <t>Writeup results</t>
+  </si>
+  <si>
+    <t>Write review</t>
+  </si>
+  <si>
+    <t>Proofreading</t>
+  </si>
+  <si>
+    <t>Create powerpoint</t>
+  </si>
+  <si>
+    <t>Practice</t>
+  </si>
+  <si>
+    <t>Present</t>
+  </si>
+  <si>
+    <t>Smart AI running</t>
+  </si>
+  <si>
+    <t>Player Data</t>
+  </si>
+  <si>
+    <t>Game Testing</t>
+  </si>
+  <si>
+    <t>AI Testing</t>
+  </si>
+  <si>
+    <t>Analyse Results</t>
+  </si>
+  <si>
+    <t>Edits and Changes</t>
+  </si>
+  <si>
+    <t>Baba, N., Kita, T., &amp; Oda, N. (n.d.). Application of neural networks to computer gaming. Proceedings of ICNN’95 - International Conference on Neural Networks. ICNN’95 - International Conference on Neural Networks. https://doi.org/10.1109/icnn.1995.488238</t>
+  </si>
+  <si>
+    <t>Learn. (1989). In Oxford English Dictionary (Second Edition). Oxford University Press. https://www.oed.com/oed2/00131039;jsessionid=66553C08C9CA59A8C5014652E5993EC2</t>
+  </si>
+  <si>
+    <t>Rana, P. (2018, September). Artificial Intelligence (AI) in Video Games. International Journal of Computer Applications - IJCA. https://www.ijcaonline.org/archives/volume181/number19/29968-2018917818</t>
+  </si>
+  <si>
+    <t>Bakkes, S. C. J., Spronck, P. H. M., &amp; van Lankveld, G. (2012). Player behavioural modelling for video games. Entertainment Computing, 3(3), 71–79. https://doi.org/10.1016/j.entcom.2011.12.001</t>
+  </si>
+  <si>
+    <t>Srinivas, K., Rani, B.K. and Govrdhan, A., 2010. Applications of data mining techniques in healthcare and prediction of heart attacks. International Journal on Computer Science and Engineering (IJCSE), 2(02), pp.250-255.</t>
+  </si>
+  <si>
+    <t>Guresen, E., Kayakutlu, G. &amp; Daim, T.U. 2011, "Using artificial neural network models in stock market index prediction", Expert systems with applications, vol. 38, no. 8, pp. 10389-10397</t>
+  </si>
+  <si>
+    <t>Awodele, O. and Jegede, O., 2009. Neural networks and its application in engineering. Sci IT, pp.83-95.</t>
+  </si>
+  <si>
+    <t>Futuyma, Douglas J., 2005, Evolution, Sunderland, MA: Sinauer Associates</t>
+  </si>
+  <si>
+    <t>Balla, K., Sevilla, R., Hassan, O., &amp; Morgan, K. (2021). An application of neural networks to the prediction of aerodynamic coefficients of aerofoils and wings. Applied Mathematical Modelling, 96, 456–479. https://doi.org/10.1016/j.apm.2021.03.019</t>
+  </si>
+  <si>
+    <t>Goto, S., &amp; Goto, S. (2019). Application of Neural Networks to 12-Lead Electrocardiography　― Current Status and Future Directions ―. Circulation Reports, 1(11), 481–486. https://doi.org/10.1253/circrep.cr-19-0096</t>
+  </si>
+  <si>
+    <t>Mohanraj, M., Jayaraj, S., &amp; Muraleedharan, C. (2012). Applications of artificial neural networks for refrigeration, air-conditioning and heat pump systems—A review. Renewable and Sustainable Energy Reviews, 16(2), 1340–1358. https://doi.org/10.1016/j.rser.2011.10.015</t>
+  </si>
+  <si>
+    <t>Computational Mechanics–New Frontiers for the New Millennium. (2001). Elsevier. https://doi.org/10.1016/c2009-0-10827-9</t>
+  </si>
+  <si>
+    <t>Illeris, K. (2007). How we learn : Learning and non-learning in school and beyond. ProQuest Ebook Central https://ebookcentral-proquest-com.ezproxy.brighton.ac.uk</t>
+  </si>
+  <si>
+    <t>Schmidhuber, J. (2015). Deep learning in neural networks: An overview. Neural Networks, 61, 85–117. https://doi.org/10.1016/j.neunet.2014.09.003</t>
+  </si>
+  <si>
+    <t>Darwin, C., &amp; Huxley, J. (2003). The Origin of Species: 150th Anniversary Edition (150th Anniversary ed.). Signet.</t>
+  </si>
+  <si>
+    <t>Mohssen Mohammed, Muhammad Badruddin Khan, &amp; Eihab Bashier Mohammed Bashier. (2017). Machine Learning : Algorithms and Applications. CRC Press</t>
+  </si>
+  <si>
+    <t>Python. (n.d.). Python.Org. https://www.python.org</t>
+  </si>
+  <si>
+    <t>Kenney Platformer Art: Extended Tileset. (n.d.). Kenney.Nl. https://www.kenney.nl/assets/platformer-art-extended-tileset</t>
+  </si>
+  <si>
+    <t>Kenney Platformer Characters. (n.d.). Kenney.Nl. https://www.kenney.nl/assets/platformer-characters</t>
+  </si>
+  <si>
+    <t>Pygame. (n.d.). Pygame.Org. https://www.pygame.org/wiki/about</t>
+  </si>
+  <si>
+    <t>NEAT-Python 0.92. (n.d.). Neat-Python. https://neat-python.readthedocs.io/en/latest/neat_overview.html</t>
+  </si>
+  <si>
+    <t>Python Flappy Bird AI Tutorial (with NEAT) - NEAT Configuration and Explanation. (2019, August 18). [Video]. YouTube. https://www.youtube.com/watch?v=MPFWsRjDmnU&amp;list=PLzMcBGfZo4-lwGZWXz5Qgta_YNX3_vLS2&amp;index=6</t>
+  </si>
+  <si>
+    <t>Msanjayds/AI_KISS. (n.d.). GitHub. https://github.com/Msanjayds/AI_KISS/tree/master/1.%20AI/RollingBall</t>
+  </si>
+  <si>
+    <t>Game Development in Python 3 With PyGame - 16 - Convert to executable. (2014, October 13). [Video]. YouTube. https://www.youtube.com/watch?v=EY6ZCPxqEtM&amp;t=675s</t>
+  </si>
+  <si>
+    <t>A.I. LEARNS to Play Hill Climb Racing. (2018, November 5). [Video]. YouTube. https://www.youtube.com/watch?v=SO7FFteErWs&amp;t=971s</t>
+  </si>
+  <si>
+    <t>A.I. Learns to DRIVE. (2019, February 19). [Video]. YouTube. https://www.youtube.com/watch?v=r428O_CMcpI</t>
+  </si>
+  <si>
+    <t>Coding With Russ. (2021, March 7). [Video]. YouTube. https://www.youtube.com/channel/UCPrRY0S-VzekrJK7I7F4-Mg</t>
+  </si>
+  <si>
+    <t>Pygame / Pymunk Platformer Prototype: it works. (2020, August 29). [Video]. YouTube. https://www.youtube.com/watch?v=CTFCA8_9eYc&amp;t=7s</t>
+  </si>
+  <si>
+    <t>Turing, A. (1950). Computing Machinery and Intelligence. Mind, 59(236), 433-460. Retrieved May 20, 2021, from http://www.jstor.org/stable/2251299</t>
+  </si>
+  <si>
+    <t>Tiled Map Editor. (n.d.). Tiled. https://www.mapeditor.org</t>
+  </si>
 </sst>
 </file>
 
@@ -240,7 +516,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,8 +536,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -328,8 +611,68 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF5050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9966FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="38">
+  <borders count="55">
     <border>
       <left/>
       <right/>
@@ -786,11 +1129,218 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="206">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1019,6 +1569,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1026,6 +1581,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1076,15 +1640,6 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1097,13 +1652,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1112,11 +1664,161 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="54" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="54" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1146,6 +1848,13 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF5050"/>
+      <color rgb="FF9966FF"/>
+      <color rgb="FFCCCCFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -11314,18 +12023,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{953681E0-9D75-4F13-963A-D1C0244A28FB}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:L78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" customWidth="1"/>
+    <col min="1" max="1" width="159.140625" customWidth="1"/>
+    <col min="9" max="9" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.5703125" customWidth="1"/>
+    <col min="12" max="12" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11333,7 +12046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -11342,13 +12055,13 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -11356,41 +12069,41 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>605</v>
       </c>
       <c r="C12">
-        <v>1100</v>
+        <v>1050</v>
       </c>
       <c r="D12">
         <f>(B12/C12)*100</f>
-        <v>55.000000000000007</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>57.619047619047613</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="C13">
-        <v>1100</v>
+        <v>1005</v>
       </c>
       <c r="D13">
         <f>(B13/C13)*100</f>
-        <v>54.54545454545454</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>59.203980099502488</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>600</v>
       </c>
@@ -11402,7 +12115,425 @@
         <v>55.045871559633028</v>
       </c>
     </row>
+    <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I15" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="J15" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="K15" s="128" t="s">
+        <v>65</v>
+      </c>
+      <c r="L15" s="129" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="I16" s="130" t="s">
+        <v>67</v>
+      </c>
+      <c r="J16" s="131" t="s">
+        <v>69</v>
+      </c>
+      <c r="K16" s="92" t="s">
+        <v>71</v>
+      </c>
+      <c r="L16" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I17" s="130" t="s">
+        <v>68</v>
+      </c>
+      <c r="J17" s="132" t="s">
+        <v>70</v>
+      </c>
+      <c r="K17" s="92" t="s">
+        <v>72</v>
+      </c>
+      <c r="L17" s="15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I18" s="36"/>
+      <c r="J18" s="126"/>
+      <c r="K18" s="92" t="s">
+        <v>73</v>
+      </c>
+      <c r="L18" s="15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I19" s="36"/>
+      <c r="J19" s="126"/>
+      <c r="K19" s="92" t="s">
+        <v>74</v>
+      </c>
+      <c r="L19" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I20" s="36"/>
+      <c r="J20" s="126"/>
+      <c r="K20" s="92"/>
+      <c r="L20" s="15"/>
+    </row>
+    <row r="21" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I21" s="36"/>
+      <c r="J21" s="126"/>
+      <c r="K21" s="92"/>
+      <c r="L21" s="15"/>
+    </row>
+    <row r="22" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I22" s="36"/>
+      <c r="J22" s="126"/>
+      <c r="K22" s="92"/>
+      <c r="L22" s="15"/>
+    </row>
+    <row r="23" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I23" s="36"/>
+      <c r="J23" s="126"/>
+      <c r="K23" s="92"/>
+      <c r="L23" s="15"/>
+    </row>
+    <row r="24" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I24" s="36"/>
+      <c r="J24" s="126"/>
+      <c r="K24" s="92"/>
+      <c r="L24" s="15"/>
+    </row>
+    <row r="25" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I25" s="36"/>
+      <c r="J25" s="126"/>
+      <c r="K25" s="92"/>
+      <c r="L25" s="15"/>
+    </row>
+    <row r="26" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I26" s="36"/>
+      <c r="J26" s="126"/>
+      <c r="K26" s="92"/>
+      <c r="L26" s="15"/>
+    </row>
+    <row r="27" spans="9:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I27" s="37"/>
+      <c r="J27" s="127"/>
+      <c r="K27" s="93"/>
+      <c r="L27" s="14"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>150</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>149</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>131</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>125</v>
+      </c>
+      <c r="B39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="205" t="s">
+        <v>128</v>
+      </c>
+      <c r="B40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>133</v>
+      </c>
+      <c r="B41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>151</v>
+      </c>
+      <c r="B42">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>136</v>
+      </c>
+      <c r="B43">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>139</v>
+      </c>
+      <c r="B44">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>132</v>
+      </c>
+      <c r="B45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>148</v>
+      </c>
+      <c r="B46">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>134</v>
+      </c>
+      <c r="B47">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>130</v>
+      </c>
+      <c r="B48">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>137</v>
+      </c>
+      <c r="B49">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>142</v>
+      </c>
+      <c r="B50">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>143</v>
+      </c>
+      <c r="B51">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>126</v>
+      </c>
+      <c r="B52">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>135</v>
+      </c>
+      <c r="B53">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>140</v>
+      </c>
+      <c r="B54">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>147</v>
+      </c>
+      <c r="B55">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>145</v>
+      </c>
+      <c r="B56">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>152</v>
+      </c>
+      <c r="B57">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>144</v>
+      </c>
+      <c r="B58">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>146</v>
+      </c>
+      <c r="B59">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>141</v>
+      </c>
+      <c r="B60">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>127</v>
+      </c>
+      <c r="B61">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>138</v>
+      </c>
+      <c r="B62">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>129</v>
+      </c>
+      <c r="B63">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>154</v>
+      </c>
+      <c r="B64">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>153</v>
+      </c>
+      <c r="B65">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B76">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B78">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A36:A63">
+    <sortCondition ref="A36:A63"/>
+  </sortState>
   <conditionalFormatting sqref="D12:D14">
     <cfRule type="colorScale" priority="1">
       <colorScale>
@@ -11683,11 +12814,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="95" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="92"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="97"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="87" t="s">
@@ -11779,118 +12910,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:65" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="110"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="109" t="s">
+      <c r="C1" s="99"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="110"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="93" t="s">
+      <c r="F1" s="99"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="94"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="93" t="s">
+      <c r="I1" s="102"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="94"/>
-      <c r="M1" s="95"/>
-      <c r="N1" s="96" t="s">
+      <c r="L1" s="102"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="97"/>
-      <c r="P1" s="98"/>
-      <c r="Q1" s="109" t="s">
+      <c r="O1" s="105"/>
+      <c r="P1" s="106"/>
+      <c r="Q1" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="110"/>
-      <c r="S1" s="111"/>
-      <c r="T1" s="93" t="s">
+      <c r="R1" s="99"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="U1" s="94"/>
-      <c r="V1" s="95"/>
-      <c r="W1" s="96" t="s">
+      <c r="U1" s="102"/>
+      <c r="V1" s="103"/>
+      <c r="W1" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="X1" s="97"/>
-      <c r="Y1" s="98"/>
-      <c r="Z1" s="109" t="s">
+      <c r="X1" s="105"/>
+      <c r="Y1" s="106"/>
+      <c r="Z1" s="98" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="110"/>
-      <c r="AB1" s="111"/>
-      <c r="AC1" s="112" t="s">
+      <c r="AA1" s="99"/>
+      <c r="AB1" s="100"/>
+      <c r="AC1" s="117" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" s="113"/>
-      <c r="AE1" s="114"/>
-      <c r="AF1" s="109" t="s">
+      <c r="AD1" s="118"/>
+      <c r="AE1" s="119"/>
+      <c r="AF1" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="AG1" s="110"/>
-      <c r="AH1" s="111"/>
-      <c r="AI1" s="109" t="s">
+      <c r="AG1" s="99"/>
+      <c r="AH1" s="100"/>
+      <c r="AI1" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="AJ1" s="110"/>
-      <c r="AK1" s="111"/>
-      <c r="AL1" s="106" t="s">
+      <c r="AJ1" s="99"/>
+      <c r="AK1" s="100"/>
+      <c r="AL1" s="114" t="s">
         <v>29</v>
       </c>
-      <c r="AM1" s="107"/>
-      <c r="AN1" s="108"/>
-      <c r="AO1" s="93" t="s">
+      <c r="AM1" s="115"/>
+      <c r="AN1" s="116"/>
+      <c r="AO1" s="101" t="s">
         <v>30</v>
       </c>
-      <c r="AP1" s="94"/>
-      <c r="AQ1" s="95"/>
-      <c r="AR1" s="93" t="s">
+      <c r="AP1" s="102"/>
+      <c r="AQ1" s="103"/>
+      <c r="AR1" s="101" t="s">
         <v>31</v>
       </c>
-      <c r="AS1" s="94"/>
-      <c r="AT1" s="95"/>
-      <c r="AU1" s="96" t="s">
+      <c r="AS1" s="102"/>
+      <c r="AT1" s="103"/>
+      <c r="AU1" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="AV1" s="97"/>
-      <c r="AW1" s="98"/>
-      <c r="AX1" s="109" t="s">
+      <c r="AV1" s="105"/>
+      <c r="AW1" s="106"/>
+      <c r="AX1" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="AY1" s="110"/>
-      <c r="AZ1" s="111"/>
-      <c r="BA1" s="106" t="s">
+      <c r="AY1" s="99"/>
+      <c r="AZ1" s="100"/>
+      <c r="BA1" s="114" t="s">
         <v>34</v>
       </c>
-      <c r="BB1" s="107"/>
-      <c r="BC1" s="108"/>
-      <c r="BD1" s="93" t="s">
+      <c r="BB1" s="115"/>
+      <c r="BC1" s="116"/>
+      <c r="BD1" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="BE1" s="94"/>
-      <c r="BF1" s="95"/>
-      <c r="BG1" s="96" t="s">
+      <c r="BE1" s="102"/>
+      <c r="BF1" s="103"/>
+      <c r="BG1" s="104" t="s">
         <v>36</v>
       </c>
-      <c r="BH1" s="97"/>
-      <c r="BI1" s="98"/>
-      <c r="BJ1" s="103" t="s">
+      <c r="BH1" s="105"/>
+      <c r="BI1" s="106"/>
+      <c r="BJ1" s="111" t="s">
         <v>53</v>
       </c>
-      <c r="BK1" s="104"/>
-      <c r="BL1" s="104"/>
-      <c r="BM1" s="105"/>
+      <c r="BK1" s="112"/>
+      <c r="BL1" s="112"/>
+      <c r="BM1" s="113"/>
     </row>
     <row r="2" spans="1:65" s="22" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="102"/>
+      <c r="A2" s="110"/>
       <c r="B2" s="70" t="s">
         <v>14</v>
       </c>
@@ -14700,7 +15831,7 @@
       <c r="BM15" s="52"/>
     </row>
     <row r="16" spans="1:65" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="99" t="s">
+      <c r="A16" s="107" t="s">
         <v>39</v>
       </c>
       <c r="B16" s="65">
@@ -14721,7 +15852,7 @@
       <c r="BM16" s="52"/>
     </row>
     <row r="17" spans="1:65" s="54" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="100"/>
+      <c r="A17" s="108"/>
       <c r="B17" s="63"/>
       <c r="C17" s="63"/>
       <c r="D17" s="64">
@@ -15248,13 +16379,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="AI1:AK1"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="Q1:S1"/>
     <mergeCell ref="BD1:BF1"/>
     <mergeCell ref="BG1:BI1"/>
     <mergeCell ref="A16:A17"/>
@@ -15271,6 +16395,13 @@
     <mergeCell ref="Z1:AB1"/>
     <mergeCell ref="AC1:AE1"/>
     <mergeCell ref="AF1:AH1"/>
+    <mergeCell ref="AI1:AK1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="Q1:S1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="BM3:BM12">
@@ -15508,7 +16639,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DBE20AF-94DB-47C5-892C-3B2732D150BD}">
   <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView topLeftCell="F34" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="H4" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="AD50" sqref="AD50"/>
     </sheetView>
   </sheetViews>
@@ -15522,10 +16653,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="120" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="116"/>
+      <c r="B1" s="122"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="35" t="s">
@@ -15564,10 +16695,10 @@
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="115" t="s">
+      <c r="A7" s="120" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="116"/>
+      <c r="B7" s="122"/>
     </row>
     <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="35" t="s">
@@ -15679,10 +16810,10 @@
     </row>
     <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="115" t="s">
+      <c r="A20" s="120" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="116"/>
+      <c r="B20" s="122"/>
     </row>
     <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="35" t="s">
@@ -15784,12 +16915,12 @@
     </row>
     <row r="32" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="119" t="s">
+      <c r="A33" s="123" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="120"/>
-      <c r="C33" s="120"/>
-      <c r="D33" s="118"/>
+      <c r="B33" s="124"/>
+      <c r="C33" s="124"/>
+      <c r="D33" s="125"/>
     </row>
     <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="44" t="s">
@@ -15813,7 +16944,7 @@
         <f>Humans!BL3</f>
         <v>32.264910813783992</v>
       </c>
-      <c r="C35" s="122">
+      <c r="C35" s="91">
         <f>'Smart AI'!E2</f>
         <v>59.605911330049267</v>
       </c>
@@ -15830,7 +16961,7 @@
         <f>Humans!BL4</f>
         <v>37.282205452265018</v>
       </c>
-      <c r="C36" s="123">
+      <c r="C36" s="92">
         <f>'Smart AI'!E3</f>
         <v>59.900990099009896</v>
       </c>
@@ -15847,7 +16978,7 @@
         <f>Humans!BL5</f>
         <v>47.624130019157619</v>
       </c>
-      <c r="C37" s="123">
+      <c r="C37" s="92">
         <f>'Smart AI'!E4</f>
         <v>60.019841269841265</v>
       </c>
@@ -15864,7 +16995,7 @@
         <f>Humans!BL6</f>
         <v>44.324095882823777</v>
       </c>
-      <c r="C38" s="123">
+      <c r="C38" s="92">
         <f>'Smart AI'!E5</f>
         <v>60.5</v>
       </c>
@@ -15881,7 +17012,7 @@
         <f>Humans!BL7</f>
         <v>42.72697381422558</v>
       </c>
-      <c r="C39" s="123">
+      <c r="C39" s="92">
         <f>'Smart AI'!E6</f>
         <v>60.62124248496994</v>
       </c>
@@ -15898,7 +17029,7 @@
         <f>Humans!BL8</f>
         <v>41.43012913959862</v>
       </c>
-      <c r="C40" s="123">
+      <c r="C40" s="92">
         <f>'Smart AI'!E7</f>
         <v>60.636182902584487</v>
       </c>
@@ -15915,7 +17046,7 @@
         <f>Humans!BL9</f>
         <v>50.744055647405631</v>
       </c>
-      <c r="C41" s="123">
+      <c r="C41" s="92">
         <f>'Smart AI'!E8</f>
         <v>60.756972111553786</v>
       </c>
@@ -15932,7 +17063,7 @@
         <f>Humans!BL10</f>
         <v>44.382616746450694</v>
       </c>
-      <c r="C42" s="123">
+      <c r="C42" s="92">
         <f>'Smart AI'!E9</f>
         <v>61</v>
       </c>
@@ -15949,7 +17080,7 @@
         <f>Humans!BL11</f>
         <v>44.565546868376515</v>
       </c>
-      <c r="C43" s="123">
+      <c r="C43" s="92">
         <f>'Smart AI'!E10</f>
         <v>61.183550651955862</v>
       </c>
@@ -15966,22 +17097,22 @@
         <f>Humans!BL12</f>
         <v>45.152300821519773</v>
       </c>
-      <c r="C44" s="124">
+      <c r="C44" s="93">
         <f>'Smart AI'!E11</f>
         <v>61.866125760649084</v>
       </c>
-      <c r="D44" s="121">
+      <c r="D44" s="90">
         <f>'Dumb AI'!C$3</f>
         <v>59.5</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="115" t="s">
+      <c r="A46" s="120" t="s">
         <v>54</v>
       </c>
-      <c r="B46" s="117"/>
-      <c r="C46" s="116"/>
+      <c r="B46" s="121"/>
+      <c r="C46" s="122"/>
     </row>
     <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="44" t="s">
@@ -16162,18 +17293,18 @@
         <f>'Smart AI'!E11</f>
         <v>61.866125760649084</v>
       </c>
-      <c r="D57" s="121">
+      <c r="D57" s="90">
         <f>'Dumb AI'!C$3</f>
         <v>59.5</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="59" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="115" t="s">
+      <c r="A59" s="120" t="s">
         <v>57</v>
       </c>
-      <c r="B59" s="117"/>
-      <c r="C59" s="116"/>
+      <c r="B59" s="121"/>
+      <c r="C59" s="122"/>
     </row>
     <row r="60" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="44" t="s">
@@ -16427,11 +17558,3931 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9B66B5A-72A3-4BE8-BD9A-883E6D29F040}">
+  <dimension ref="A1:AP181"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="158"/>
+    <col min="3" max="3" width="20.5703125" style="167" customWidth="1"/>
+    <col min="4" max="4" width="28" style="180" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9.140625" style="126"/>
+    <col min="8" max="8" width="9.140625" style="133"/>
+    <col min="9" max="9" width="9.140625" style="134"/>
+    <col min="10" max="11" width="9.140625" style="126"/>
+    <col min="12" max="12" width="9.140625" style="133"/>
+    <col min="13" max="13" width="9.140625" style="134"/>
+    <col min="14" max="15" width="9.140625" style="126"/>
+    <col min="16" max="16" width="9.140625" style="133"/>
+    <col min="17" max="17" width="9.140625" style="134"/>
+    <col min="18" max="19" width="9.140625" style="126"/>
+    <col min="20" max="20" width="9.140625" style="133"/>
+    <col min="21" max="21" width="9.140625" style="134"/>
+    <col min="22" max="23" width="9.140625" style="126"/>
+    <col min="24" max="24" width="9.140625" style="133"/>
+    <col min="25" max="42" width="9.140625" style="158"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:36" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="167"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="159"/>
+      <c r="F1" s="159"/>
+      <c r="G1" s="159"/>
+      <c r="H1" s="160"/>
+      <c r="I1" s="161"/>
+      <c r="J1" s="159"/>
+      <c r="K1" s="159"/>
+      <c r="L1" s="160"/>
+      <c r="M1" s="161"/>
+      <c r="N1" s="159"/>
+      <c r="O1" s="159"/>
+      <c r="P1" s="160"/>
+      <c r="Q1" s="161"/>
+      <c r="R1" s="159"/>
+      <c r="S1" s="159"/>
+      <c r="T1" s="160"/>
+      <c r="U1" s="161"/>
+      <c r="V1" s="159"/>
+      <c r="W1" s="159"/>
+      <c r="X1" s="159"/>
+    </row>
+    <row r="2" spans="3:36" s="158" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="167"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="159"/>
+      <c r="F2" s="159"/>
+      <c r="G2" s="159"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="161"/>
+      <c r="J2" s="159"/>
+      <c r="K2" s="159"/>
+      <c r="L2" s="160"/>
+      <c r="M2" s="161"/>
+      <c r="N2" s="159"/>
+      <c r="O2" s="159"/>
+      <c r="P2" s="160"/>
+      <c r="Q2" s="161"/>
+      <c r="R2" s="159"/>
+      <c r="S2" s="159"/>
+      <c r="T2" s="160"/>
+      <c r="U2" s="161"/>
+      <c r="V2" s="159"/>
+      <c r="W2" s="159"/>
+      <c r="X2" s="159"/>
+    </row>
+    <row r="3" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="C3" s="137" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="137" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="142" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" s="143"/>
+      <c r="G3" s="143"/>
+      <c r="H3" s="144"/>
+      <c r="I3" s="145" t="s">
+        <v>81</v>
+      </c>
+      <c r="J3" s="146"/>
+      <c r="K3" s="146"/>
+      <c r="L3" s="147"/>
+      <c r="M3" s="148" t="s">
+        <v>82</v>
+      </c>
+      <c r="N3" s="149"/>
+      <c r="O3" s="149"/>
+      <c r="P3" s="150"/>
+      <c r="Q3" s="151" t="s">
+        <v>83</v>
+      </c>
+      <c r="R3" s="152"/>
+      <c r="S3" s="152"/>
+      <c r="T3" s="153"/>
+      <c r="U3" s="154" t="s">
+        <v>84</v>
+      </c>
+      <c r="V3" s="155"/>
+      <c r="W3" s="155"/>
+      <c r="X3" s="156"/>
+      <c r="Y3" s="157"/>
+      <c r="Z3" s="157"/>
+      <c r="AA3" s="157"/>
+      <c r="AB3" s="157"/>
+      <c r="AC3" s="157"/>
+      <c r="AD3" s="157"/>
+      <c r="AE3" s="157"/>
+      <c r="AF3" s="157"/>
+      <c r="AG3" s="157"/>
+      <c r="AH3" s="157"/>
+      <c r="AI3" s="157"/>
+      <c r="AJ3" s="157"/>
+    </row>
+    <row r="4" spans="3:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="138"/>
+      <c r="D4" s="138"/>
+      <c r="E4" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="H4" s="139" t="s">
+        <v>88</v>
+      </c>
+      <c r="I4" s="140" t="s">
+        <v>85</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="L4" s="139" t="s">
+        <v>88</v>
+      </c>
+      <c r="M4" s="140" t="s">
+        <v>85</v>
+      </c>
+      <c r="N4" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="O4" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="P4" s="139" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q4" s="140" t="s">
+        <v>85</v>
+      </c>
+      <c r="R4" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="S4" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="T4" s="139" t="s">
+        <v>88</v>
+      </c>
+      <c r="U4" s="140" t="s">
+        <v>85</v>
+      </c>
+      <c r="V4" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="W4" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="X4" s="141" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="3:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="168" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="177"/>
+      <c r="E5" s="162"/>
+      <c r="F5" s="162"/>
+      <c r="G5" s="162"/>
+      <c r="H5" s="163"/>
+      <c r="I5" s="164"/>
+      <c r="J5" s="162"/>
+      <c r="K5" s="162"/>
+      <c r="L5" s="163"/>
+      <c r="M5" s="164"/>
+      <c r="N5" s="162"/>
+      <c r="O5" s="162"/>
+      <c r="P5" s="163"/>
+      <c r="Q5" s="164"/>
+      <c r="R5" s="162"/>
+      <c r="S5" s="162"/>
+      <c r="T5" s="163"/>
+      <c r="U5" s="164"/>
+      <c r="V5" s="162"/>
+      <c r="W5" s="162"/>
+      <c r="X5" s="165"/>
+    </row>
+    <row r="6" spans="3:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="169"/>
+      <c r="D6" s="178" t="s">
+        <v>91</v>
+      </c>
+      <c r="G6" s="181"/>
+      <c r="H6" s="183"/>
+      <c r="I6" s="126"/>
+      <c r="X6" s="5"/>
+    </row>
+    <row r="7" spans="3:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="169"/>
+      <c r="D7" s="178" t="s">
+        <v>92</v>
+      </c>
+      <c r="H7" s="186"/>
+      <c r="I7" s="187"/>
+      <c r="X7" s="5"/>
+    </row>
+    <row r="8" spans="3:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="169"/>
+      <c r="D8" s="178" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" s="181"/>
+      <c r="H8" s="188"/>
+      <c r="I8" s="185"/>
+      <c r="X8" s="5"/>
+    </row>
+    <row r="9" spans="3:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="169"/>
+      <c r="D9" s="178" t="s">
+        <v>98</v>
+      </c>
+      <c r="H9" s="184"/>
+      <c r="I9" s="185"/>
+      <c r="X9" s="5"/>
+    </row>
+    <row r="10" spans="3:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="169"/>
+      <c r="D10" s="178" t="s">
+        <v>97</v>
+      </c>
+      <c r="H10" s="126"/>
+      <c r="I10" s="189"/>
+      <c r="X10" s="5"/>
+    </row>
+    <row r="11" spans="3:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="169"/>
+      <c r="D11" s="178" t="s">
+        <v>94</v>
+      </c>
+      <c r="J11" s="181"/>
+      <c r="K11" s="183"/>
+      <c r="X11" s="5"/>
+    </row>
+    <row r="12" spans="3:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="169"/>
+      <c r="D12" s="178" t="s">
+        <v>95</v>
+      </c>
+      <c r="K12" s="181"/>
+      <c r="L12" s="182"/>
+      <c r="M12" s="126"/>
+      <c r="X12" s="5"/>
+    </row>
+    <row r="13" spans="3:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="169"/>
+      <c r="D13" s="178" t="s">
+        <v>42</v>
+      </c>
+      <c r="K13" s="181"/>
+      <c r="L13" s="182"/>
+      <c r="M13" s="126"/>
+      <c r="X13" s="5"/>
+    </row>
+    <row r="14" spans="3:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="169"/>
+      <c r="D14" s="178" t="s">
+        <v>96</v>
+      </c>
+      <c r="N14" s="189"/>
+      <c r="X14" s="5"/>
+    </row>
+    <row r="15" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="C15" s="169"/>
+      <c r="D15" s="178"/>
+      <c r="X15" s="5"/>
+    </row>
+    <row r="16" spans="3:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="170" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" s="177"/>
+      <c r="E16" s="162"/>
+      <c r="F16" s="162"/>
+      <c r="G16" s="162"/>
+      <c r="H16" s="163"/>
+      <c r="I16" s="164"/>
+      <c r="J16" s="162"/>
+      <c r="K16" s="162"/>
+      <c r="L16" s="163"/>
+      <c r="M16" s="164"/>
+      <c r="N16" s="162"/>
+      <c r="O16" s="162"/>
+      <c r="P16" s="163"/>
+      <c r="Q16" s="164"/>
+      <c r="R16" s="162"/>
+      <c r="S16" s="162"/>
+      <c r="T16" s="163"/>
+      <c r="U16" s="164"/>
+      <c r="V16" s="162"/>
+      <c r="W16" s="162"/>
+      <c r="X16" s="165"/>
+    </row>
+    <row r="17" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="169"/>
+      <c r="D17" s="178" t="s">
+        <v>104</v>
+      </c>
+      <c r="L17" s="126"/>
+      <c r="M17" s="190"/>
+      <c r="N17" s="191"/>
+      <c r="X17" s="5"/>
+    </row>
+    <row r="18" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="169"/>
+      <c r="D18" s="178" t="s">
+        <v>105</v>
+      </c>
+      <c r="K18" s="190"/>
+      <c r="L18" s="191"/>
+      <c r="M18" s="126"/>
+      <c r="X18" s="5"/>
+    </row>
+    <row r="19" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="169"/>
+      <c r="D19" s="178" t="s">
+        <v>106</v>
+      </c>
+      <c r="N19" s="199"/>
+      <c r="X19" s="5"/>
+    </row>
+    <row r="20" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="169"/>
+      <c r="D20" s="178" t="s">
+        <v>107</v>
+      </c>
+      <c r="N20" s="199"/>
+      <c r="X20" s="5"/>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C21" s="169"/>
+      <c r="D21" s="178"/>
+      <c r="X21" s="5"/>
+    </row>
+    <row r="22" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="171" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22" s="177"/>
+      <c r="E22" s="162"/>
+      <c r="F22" s="162"/>
+      <c r="G22" s="162"/>
+      <c r="H22" s="163"/>
+      <c r="I22" s="164"/>
+      <c r="J22" s="162"/>
+      <c r="K22" s="162"/>
+      <c r="L22" s="163"/>
+      <c r="M22" s="164"/>
+      <c r="N22" s="162"/>
+      <c r="O22" s="162"/>
+      <c r="P22" s="163"/>
+      <c r="Q22" s="164"/>
+      <c r="R22" s="162"/>
+      <c r="S22" s="162"/>
+      <c r="T22" s="163"/>
+      <c r="U22" s="164"/>
+      <c r="V22" s="162"/>
+      <c r="W22" s="162"/>
+      <c r="X22" s="165"/>
+    </row>
+    <row r="23" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="169"/>
+      <c r="D23" s="178" t="s">
+        <v>121</v>
+      </c>
+      <c r="L23" s="126"/>
+      <c r="M23" s="192"/>
+      <c r="X23" s="5"/>
+    </row>
+    <row r="24" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="169"/>
+      <c r="D24" s="178" t="s">
+        <v>122</v>
+      </c>
+      <c r="O24" s="192"/>
+      <c r="X24" s="5"/>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C25" s="169"/>
+      <c r="D25" s="178"/>
+      <c r="X25" s="5"/>
+    </row>
+    <row r="26" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="172" t="s">
+        <v>102</v>
+      </c>
+      <c r="D26" s="177"/>
+      <c r="E26" s="162"/>
+      <c r="F26" s="162"/>
+      <c r="G26" s="162"/>
+      <c r="H26" s="163"/>
+      <c r="I26" s="164"/>
+      <c r="J26" s="162"/>
+      <c r="K26" s="162"/>
+      <c r="L26" s="163"/>
+      <c r="M26" s="164"/>
+      <c r="N26" s="162"/>
+      <c r="O26" s="162"/>
+      <c r="P26" s="163"/>
+      <c r="Q26" s="164"/>
+      <c r="R26" s="162"/>
+      <c r="S26" s="162"/>
+      <c r="T26" s="163"/>
+      <c r="U26" s="164"/>
+      <c r="V26" s="162"/>
+      <c r="W26" s="162"/>
+      <c r="X26" s="165"/>
+    </row>
+    <row r="27" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="169"/>
+      <c r="D27" s="178" t="s">
+        <v>119</v>
+      </c>
+      <c r="P27" s="166"/>
+      <c r="Q27" s="193"/>
+      <c r="X27" s="5"/>
+    </row>
+    <row r="28" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="169"/>
+      <c r="D28" s="178" t="s">
+        <v>120</v>
+      </c>
+      <c r="P28" s="126"/>
+      <c r="Q28" s="194"/>
+      <c r="X28" s="5"/>
+    </row>
+    <row r="29" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="169"/>
+      <c r="D29" s="178" t="s">
+        <v>123</v>
+      </c>
+      <c r="R29" s="194"/>
+      <c r="X29" s="5"/>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C30" s="169"/>
+      <c r="D30" s="178"/>
+      <c r="X30" s="5"/>
+    </row>
+    <row r="31" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="173" t="s">
+        <v>101</v>
+      </c>
+      <c r="D31" s="177"/>
+      <c r="E31" s="162"/>
+      <c r="F31" s="162"/>
+      <c r="G31" s="162"/>
+      <c r="H31" s="163"/>
+      <c r="I31" s="164"/>
+      <c r="J31" s="162"/>
+      <c r="K31" s="162"/>
+      <c r="L31" s="163"/>
+      <c r="M31" s="164"/>
+      <c r="N31" s="162"/>
+      <c r="O31" s="162"/>
+      <c r="P31" s="163"/>
+      <c r="Q31" s="164"/>
+      <c r="R31" s="162"/>
+      <c r="S31" s="162"/>
+      <c r="T31" s="163"/>
+      <c r="U31" s="164"/>
+      <c r="V31" s="162"/>
+      <c r="W31" s="162"/>
+      <c r="X31" s="165"/>
+    </row>
+    <row r="32" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="169"/>
+      <c r="D32" s="195" t="s">
+        <v>108</v>
+      </c>
+      <c r="E32" s="196"/>
+      <c r="F32" s="197"/>
+      <c r="G32" s="198"/>
+      <c r="X32" s="5"/>
+    </row>
+    <row r="33" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="169"/>
+      <c r="D33" s="178" t="s">
+        <v>109</v>
+      </c>
+      <c r="F33" s="201"/>
+      <c r="X33" s="5"/>
+    </row>
+    <row r="34" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="169"/>
+      <c r="D34" s="178" t="s">
+        <v>110</v>
+      </c>
+      <c r="G34" s="201"/>
+      <c r="X34" s="5"/>
+    </row>
+    <row r="35" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="169"/>
+      <c r="D35" s="178" t="s">
+        <v>111</v>
+      </c>
+      <c r="J35" s="201"/>
+      <c r="X35" s="5"/>
+    </row>
+    <row r="36" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="169"/>
+      <c r="D36" s="178" t="s">
+        <v>112</v>
+      </c>
+      <c r="J36" s="201"/>
+      <c r="X36" s="5"/>
+    </row>
+    <row r="37" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="169"/>
+      <c r="D37" s="178" t="s">
+        <v>113</v>
+      </c>
+      <c r="S37" s="201"/>
+      <c r="X37" s="5"/>
+    </row>
+    <row r="38" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C38" s="169"/>
+      <c r="D38" s="178" t="s">
+        <v>114</v>
+      </c>
+      <c r="S38" s="202"/>
+      <c r="X38" s="5"/>
+    </row>
+    <row r="39" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C39" s="169"/>
+      <c r="D39" s="178" t="s">
+        <v>124</v>
+      </c>
+      <c r="S39" s="196"/>
+      <c r="T39" s="204"/>
+      <c r="U39" s="198"/>
+      <c r="X39" s="5"/>
+    </row>
+    <row r="40" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C40" s="169"/>
+      <c r="D40" s="178" t="s">
+        <v>115</v>
+      </c>
+      <c r="T40" s="126"/>
+      <c r="U40" s="203"/>
+      <c r="X40" s="5"/>
+    </row>
+    <row r="41" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C41" s="169"/>
+      <c r="D41" s="178"/>
+      <c r="X41" s="5"/>
+    </row>
+    <row r="42" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C42" s="174" t="s">
+        <v>103</v>
+      </c>
+      <c r="D42" s="177"/>
+      <c r="E42" s="162"/>
+      <c r="F42" s="162"/>
+      <c r="G42" s="162"/>
+      <c r="H42" s="163"/>
+      <c r="I42" s="164"/>
+      <c r="J42" s="162"/>
+      <c r="K42" s="162"/>
+      <c r="L42" s="163"/>
+      <c r="M42" s="164"/>
+      <c r="N42" s="162"/>
+      <c r="O42" s="162"/>
+      <c r="P42" s="163"/>
+      <c r="Q42" s="164"/>
+      <c r="R42" s="162"/>
+      <c r="S42" s="162"/>
+      <c r="T42" s="163"/>
+      <c r="U42" s="164"/>
+      <c r="V42" s="162"/>
+      <c r="W42" s="162"/>
+      <c r="X42" s="165"/>
+    </row>
+    <row r="43" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C43" s="169"/>
+      <c r="D43" s="178" t="s">
+        <v>116</v>
+      </c>
+      <c r="T43" s="200"/>
+      <c r="U43" s="126"/>
+      <c r="X43" s="5"/>
+    </row>
+    <row r="44" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C44" s="169"/>
+      <c r="D44" s="178" t="s">
+        <v>117</v>
+      </c>
+      <c r="W44" s="200"/>
+      <c r="X44" s="5"/>
+    </row>
+    <row r="45" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C45" s="169"/>
+      <c r="D45" s="178" t="s">
+        <v>118</v>
+      </c>
+      <c r="W45" s="200"/>
+      <c r="X45" s="5"/>
+    </row>
+    <row r="46" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C46" s="175"/>
+      <c r="D46" s="179"/>
+      <c r="E46" s="127"/>
+      <c r="F46" s="127"/>
+      <c r="G46" s="127"/>
+      <c r="H46" s="135"/>
+      <c r="I46" s="136"/>
+      <c r="J46" s="127"/>
+      <c r="K46" s="127"/>
+      <c r="L46" s="135"/>
+      <c r="M46" s="136"/>
+      <c r="N46" s="127"/>
+      <c r="O46" s="127"/>
+      <c r="P46" s="135"/>
+      <c r="Q46" s="136"/>
+      <c r="R46" s="127"/>
+      <c r="S46" s="127"/>
+      <c r="T46" s="135"/>
+      <c r="U46" s="136"/>
+      <c r="V46" s="127"/>
+      <c r="W46" s="127"/>
+      <c r="X46" s="90"/>
+    </row>
+    <row r="47" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C47" s="167"/>
+      <c r="D47" s="176"/>
+      <c r="E47" s="159"/>
+      <c r="F47" s="159"/>
+      <c r="G47" s="159"/>
+      <c r="H47" s="160"/>
+      <c r="I47" s="161"/>
+      <c r="J47" s="159"/>
+      <c r="K47" s="159"/>
+      <c r="L47" s="160"/>
+      <c r="M47" s="161"/>
+      <c r="N47" s="159"/>
+      <c r="O47" s="159"/>
+      <c r="P47" s="160"/>
+      <c r="Q47" s="161"/>
+      <c r="R47" s="159"/>
+      <c r="S47" s="159"/>
+      <c r="T47" s="160"/>
+      <c r="U47" s="161"/>
+      <c r="V47" s="159"/>
+      <c r="W47" s="159"/>
+      <c r="X47" s="160"/>
+    </row>
+    <row r="48" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C48" s="167"/>
+      <c r="D48" s="176"/>
+      <c r="E48" s="159"/>
+      <c r="F48" s="159"/>
+      <c r="G48" s="159"/>
+      <c r="H48" s="160"/>
+      <c r="I48" s="161"/>
+      <c r="J48" s="159"/>
+      <c r="K48" s="159"/>
+      <c r="L48" s="160"/>
+      <c r="M48" s="161"/>
+      <c r="N48" s="159"/>
+      <c r="O48" s="159"/>
+      <c r="P48" s="160"/>
+      <c r="Q48" s="161"/>
+      <c r="R48" s="159"/>
+      <c r="S48" s="159"/>
+      <c r="T48" s="160"/>
+      <c r="U48" s="161"/>
+      <c r="V48" s="159"/>
+      <c r="W48" s="159"/>
+      <c r="X48" s="160"/>
+    </row>
+    <row r="49" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C49" s="167"/>
+      <c r="D49" s="176"/>
+      <c r="E49" s="159"/>
+      <c r="F49" s="159"/>
+      <c r="G49" s="159"/>
+      <c r="H49" s="160"/>
+      <c r="I49" s="161"/>
+      <c r="J49" s="159"/>
+      <c r="K49" s="159"/>
+      <c r="L49" s="160"/>
+      <c r="M49" s="161"/>
+      <c r="N49" s="159"/>
+      <c r="O49" s="159"/>
+      <c r="P49" s="160"/>
+      <c r="Q49" s="161"/>
+      <c r="R49" s="159"/>
+      <c r="S49" s="159"/>
+      <c r="T49" s="160"/>
+      <c r="U49" s="161"/>
+      <c r="V49" s="159"/>
+      <c r="W49" s="159"/>
+      <c r="X49" s="160"/>
+    </row>
+    <row r="50" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C50" s="167"/>
+      <c r="D50" s="176"/>
+      <c r="E50" s="159"/>
+      <c r="F50" s="159"/>
+      <c r="G50" s="159"/>
+      <c r="H50" s="160"/>
+      <c r="I50" s="161"/>
+      <c r="J50" s="159"/>
+      <c r="K50" s="159"/>
+      <c r="L50" s="160"/>
+      <c r="M50" s="161"/>
+      <c r="N50" s="159"/>
+      <c r="O50" s="159"/>
+      <c r="P50" s="160"/>
+      <c r="Q50" s="161"/>
+      <c r="R50" s="159"/>
+      <c r="S50" s="159"/>
+      <c r="T50" s="160"/>
+      <c r="U50" s="161"/>
+      <c r="V50" s="159"/>
+      <c r="W50" s="159"/>
+      <c r="X50" s="160"/>
+    </row>
+    <row r="51" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C51" s="167"/>
+      <c r="D51" s="176"/>
+      <c r="E51" s="159"/>
+      <c r="F51" s="159"/>
+      <c r="G51" s="159"/>
+      <c r="H51" s="160"/>
+      <c r="I51" s="161"/>
+      <c r="J51" s="159"/>
+      <c r="K51" s="159"/>
+      <c r="L51" s="160"/>
+      <c r="M51" s="161"/>
+      <c r="N51" s="159"/>
+      <c r="O51" s="159"/>
+      <c r="P51" s="160"/>
+      <c r="Q51" s="161"/>
+      <c r="R51" s="159"/>
+      <c r="S51" s="159"/>
+      <c r="T51" s="160"/>
+      <c r="U51" s="161"/>
+      <c r="V51" s="159"/>
+      <c r="W51" s="159"/>
+      <c r="X51" s="160"/>
+    </row>
+    <row r="52" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C52" s="167"/>
+      <c r="D52" s="176"/>
+      <c r="E52" s="159"/>
+      <c r="F52" s="159"/>
+      <c r="G52" s="159"/>
+      <c r="H52" s="160"/>
+      <c r="I52" s="161"/>
+      <c r="J52" s="159"/>
+      <c r="K52" s="159"/>
+      <c r="L52" s="160"/>
+      <c r="M52" s="161"/>
+      <c r="N52" s="159"/>
+      <c r="O52" s="159"/>
+      <c r="P52" s="160"/>
+      <c r="Q52" s="161"/>
+      <c r="R52" s="159"/>
+      <c r="S52" s="159"/>
+      <c r="T52" s="160"/>
+      <c r="U52" s="161"/>
+      <c r="V52" s="159"/>
+      <c r="W52" s="159"/>
+      <c r="X52" s="160"/>
+    </row>
+    <row r="53" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C53" s="167"/>
+      <c r="D53" s="176"/>
+      <c r="E53" s="159"/>
+      <c r="F53" s="159"/>
+      <c r="G53" s="159"/>
+      <c r="H53" s="160"/>
+      <c r="I53" s="161"/>
+      <c r="J53" s="159"/>
+      <c r="K53" s="159"/>
+      <c r="L53" s="160"/>
+      <c r="M53" s="161"/>
+      <c r="N53" s="159"/>
+      <c r="O53" s="159"/>
+      <c r="P53" s="160"/>
+      <c r="Q53" s="161"/>
+      <c r="R53" s="159"/>
+      <c r="S53" s="159"/>
+      <c r="T53" s="160"/>
+      <c r="U53" s="161"/>
+      <c r="V53" s="159"/>
+      <c r="W53" s="159"/>
+      <c r="X53" s="160"/>
+    </row>
+    <row r="54" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C54" s="167"/>
+      <c r="D54" s="176"/>
+      <c r="E54" s="159"/>
+      <c r="F54" s="159"/>
+      <c r="G54" s="159"/>
+      <c r="H54" s="160"/>
+      <c r="I54" s="161"/>
+      <c r="J54" s="159"/>
+      <c r="K54" s="159"/>
+      <c r="L54" s="160"/>
+      <c r="M54" s="161"/>
+      <c r="N54" s="159"/>
+      <c r="O54" s="159"/>
+      <c r="P54" s="160"/>
+      <c r="Q54" s="161"/>
+      <c r="R54" s="159"/>
+      <c r="S54" s="159"/>
+      <c r="T54" s="160"/>
+      <c r="U54" s="161"/>
+      <c r="V54" s="159"/>
+      <c r="W54" s="159"/>
+      <c r="X54" s="160"/>
+    </row>
+    <row r="55" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C55" s="167"/>
+      <c r="D55" s="176"/>
+      <c r="E55" s="159"/>
+      <c r="F55" s="159"/>
+      <c r="G55" s="159"/>
+      <c r="H55" s="160"/>
+      <c r="I55" s="161"/>
+      <c r="J55" s="159"/>
+      <c r="K55" s="159"/>
+      <c r="L55" s="160"/>
+      <c r="M55" s="161"/>
+      <c r="N55" s="159"/>
+      <c r="O55" s="159"/>
+      <c r="P55" s="160"/>
+      <c r="Q55" s="161"/>
+      <c r="R55" s="159"/>
+      <c r="S55" s="159"/>
+      <c r="T55" s="160"/>
+      <c r="U55" s="161"/>
+      <c r="V55" s="159"/>
+      <c r="W55" s="159"/>
+      <c r="X55" s="160"/>
+    </row>
+    <row r="56" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C56" s="167"/>
+      <c r="D56" s="176"/>
+      <c r="E56" s="159"/>
+      <c r="F56" s="159"/>
+      <c r="G56" s="159"/>
+      <c r="H56" s="160"/>
+      <c r="I56" s="161"/>
+      <c r="J56" s="159"/>
+      <c r="K56" s="159"/>
+      <c r="L56" s="160"/>
+      <c r="M56" s="161"/>
+      <c r="N56" s="159"/>
+      <c r="O56" s="159"/>
+      <c r="P56" s="160"/>
+      <c r="Q56" s="161"/>
+      <c r="R56" s="159"/>
+      <c r="S56" s="159"/>
+      <c r="T56" s="160"/>
+      <c r="U56" s="161"/>
+      <c r="V56" s="159"/>
+      <c r="W56" s="159"/>
+      <c r="X56" s="160"/>
+    </row>
+    <row r="57" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C57" s="167"/>
+      <c r="D57" s="176"/>
+      <c r="E57" s="159"/>
+      <c r="F57" s="159"/>
+      <c r="G57" s="159"/>
+      <c r="H57" s="160"/>
+      <c r="I57" s="161"/>
+      <c r="J57" s="159"/>
+      <c r="K57" s="159"/>
+      <c r="L57" s="160"/>
+      <c r="M57" s="161"/>
+      <c r="N57" s="159"/>
+      <c r="O57" s="159"/>
+      <c r="P57" s="160"/>
+      <c r="Q57" s="161"/>
+      <c r="R57" s="159"/>
+      <c r="S57" s="159"/>
+      <c r="T57" s="160"/>
+      <c r="U57" s="161"/>
+      <c r="V57" s="159"/>
+      <c r="W57" s="159"/>
+      <c r="X57" s="160"/>
+    </row>
+    <row r="58" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C58" s="167"/>
+      <c r="D58" s="176"/>
+      <c r="E58" s="159"/>
+      <c r="F58" s="159"/>
+      <c r="G58" s="159"/>
+      <c r="H58" s="160"/>
+      <c r="I58" s="161"/>
+      <c r="J58" s="159"/>
+      <c r="K58" s="159"/>
+      <c r="L58" s="160"/>
+      <c r="M58" s="161"/>
+      <c r="N58" s="159"/>
+      <c r="O58" s="159"/>
+      <c r="P58" s="160"/>
+      <c r="Q58" s="161"/>
+      <c r="R58" s="159"/>
+      <c r="S58" s="159"/>
+      <c r="T58" s="160"/>
+      <c r="U58" s="161"/>
+      <c r="V58" s="159"/>
+      <c r="W58" s="159"/>
+      <c r="X58" s="160"/>
+    </row>
+    <row r="59" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C59" s="167"/>
+      <c r="D59" s="176"/>
+      <c r="E59" s="159"/>
+      <c r="F59" s="159"/>
+      <c r="G59" s="159"/>
+      <c r="H59" s="160"/>
+      <c r="I59" s="161"/>
+      <c r="J59" s="159"/>
+      <c r="K59" s="159"/>
+      <c r="L59" s="160"/>
+      <c r="M59" s="161"/>
+      <c r="N59" s="159"/>
+      <c r="O59" s="159"/>
+      <c r="P59" s="160"/>
+      <c r="Q59" s="161"/>
+      <c r="R59" s="159"/>
+      <c r="S59" s="159"/>
+      <c r="T59" s="160"/>
+      <c r="U59" s="161"/>
+      <c r="V59" s="159"/>
+      <c r="W59" s="159"/>
+      <c r="X59" s="160"/>
+    </row>
+    <row r="60" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C60" s="167"/>
+      <c r="D60" s="176"/>
+      <c r="E60" s="159"/>
+      <c r="F60" s="159"/>
+      <c r="G60" s="159"/>
+      <c r="H60" s="160"/>
+      <c r="I60" s="161"/>
+      <c r="J60" s="159"/>
+      <c r="K60" s="159"/>
+      <c r="L60" s="160"/>
+      <c r="M60" s="161"/>
+      <c r="N60" s="159"/>
+      <c r="O60" s="159"/>
+      <c r="P60" s="160"/>
+      <c r="Q60" s="161"/>
+      <c r="R60" s="159"/>
+      <c r="S60" s="159"/>
+      <c r="T60" s="160"/>
+      <c r="U60" s="161"/>
+      <c r="V60" s="159"/>
+      <c r="W60" s="159"/>
+      <c r="X60" s="160"/>
+    </row>
+    <row r="61" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C61" s="167"/>
+      <c r="D61" s="176"/>
+      <c r="E61" s="159"/>
+      <c r="F61" s="159"/>
+      <c r="G61" s="159"/>
+      <c r="H61" s="160"/>
+      <c r="I61" s="161"/>
+      <c r="J61" s="159"/>
+      <c r="K61" s="159"/>
+      <c r="L61" s="160"/>
+      <c r="M61" s="161"/>
+      <c r="N61" s="159"/>
+      <c r="O61" s="159"/>
+      <c r="P61" s="160"/>
+      <c r="Q61" s="161"/>
+      <c r="R61" s="159"/>
+      <c r="S61" s="159"/>
+      <c r="T61" s="160"/>
+      <c r="U61" s="161"/>
+      <c r="V61" s="159"/>
+      <c r="W61" s="159"/>
+      <c r="X61" s="160"/>
+    </row>
+    <row r="62" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C62" s="167"/>
+      <c r="D62" s="176"/>
+      <c r="E62" s="159"/>
+      <c r="F62" s="159"/>
+      <c r="G62" s="159"/>
+      <c r="H62" s="160"/>
+      <c r="I62" s="161"/>
+      <c r="J62" s="159"/>
+      <c r="K62" s="159"/>
+      <c r="L62" s="160"/>
+      <c r="M62" s="161"/>
+      <c r="N62" s="159"/>
+      <c r="O62" s="159"/>
+      <c r="P62" s="160"/>
+      <c r="Q62" s="161"/>
+      <c r="R62" s="159"/>
+      <c r="S62" s="159"/>
+      <c r="T62" s="160"/>
+      <c r="U62" s="161"/>
+      <c r="V62" s="159"/>
+      <c r="W62" s="159"/>
+      <c r="X62" s="160"/>
+    </row>
+    <row r="63" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C63" s="167"/>
+      <c r="D63" s="176"/>
+      <c r="E63" s="159"/>
+      <c r="F63" s="159"/>
+      <c r="G63" s="159"/>
+      <c r="H63" s="160"/>
+      <c r="I63" s="161"/>
+      <c r="J63" s="159"/>
+      <c r="K63" s="159"/>
+      <c r="L63" s="160"/>
+      <c r="M63" s="161"/>
+      <c r="N63" s="159"/>
+      <c r="O63" s="159"/>
+      <c r="P63" s="160"/>
+      <c r="Q63" s="161"/>
+      <c r="R63" s="159"/>
+      <c r="S63" s="159"/>
+      <c r="T63" s="160"/>
+      <c r="U63" s="161"/>
+      <c r="V63" s="159"/>
+      <c r="W63" s="159"/>
+      <c r="X63" s="160"/>
+    </row>
+    <row r="64" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C64" s="167"/>
+      <c r="D64" s="176"/>
+      <c r="E64" s="159"/>
+      <c r="F64" s="159"/>
+      <c r="G64" s="159"/>
+      <c r="H64" s="160"/>
+      <c r="I64" s="161"/>
+      <c r="J64" s="159"/>
+      <c r="K64" s="159"/>
+      <c r="L64" s="160"/>
+      <c r="M64" s="161"/>
+      <c r="N64" s="159"/>
+      <c r="O64" s="159"/>
+      <c r="P64" s="160"/>
+      <c r="Q64" s="161"/>
+      <c r="R64" s="159"/>
+      <c r="S64" s="159"/>
+      <c r="T64" s="160"/>
+      <c r="U64" s="161"/>
+      <c r="V64" s="159"/>
+      <c r="W64" s="159"/>
+      <c r="X64" s="160"/>
+    </row>
+    <row r="65" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C65" s="167"/>
+      <c r="D65" s="176"/>
+      <c r="E65" s="159"/>
+      <c r="F65" s="159"/>
+      <c r="G65" s="159"/>
+      <c r="H65" s="160"/>
+      <c r="I65" s="161"/>
+      <c r="J65" s="159"/>
+      <c r="K65" s="159"/>
+      <c r="L65" s="160"/>
+      <c r="M65" s="161"/>
+      <c r="N65" s="159"/>
+      <c r="O65" s="159"/>
+      <c r="P65" s="160"/>
+      <c r="Q65" s="161"/>
+      <c r="R65" s="159"/>
+      <c r="S65" s="159"/>
+      <c r="T65" s="160"/>
+      <c r="U65" s="161"/>
+      <c r="V65" s="159"/>
+      <c r="W65" s="159"/>
+      <c r="X65" s="160"/>
+    </row>
+    <row r="66" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C66" s="167"/>
+      <c r="D66" s="176"/>
+      <c r="E66" s="159"/>
+      <c r="F66" s="159"/>
+      <c r="G66" s="159"/>
+      <c r="H66" s="160"/>
+      <c r="I66" s="161"/>
+      <c r="J66" s="159"/>
+      <c r="K66" s="159"/>
+      <c r="L66" s="160"/>
+      <c r="M66" s="161"/>
+      <c r="N66" s="159"/>
+      <c r="O66" s="159"/>
+      <c r="P66" s="160"/>
+      <c r="Q66" s="161"/>
+      <c r="R66" s="159"/>
+      <c r="S66" s="159"/>
+      <c r="T66" s="160"/>
+      <c r="U66" s="161"/>
+      <c r="V66" s="159"/>
+      <c r="W66" s="159"/>
+      <c r="X66" s="160"/>
+    </row>
+    <row r="67" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C67" s="167"/>
+      <c r="D67" s="176"/>
+      <c r="E67" s="159"/>
+      <c r="F67" s="159"/>
+      <c r="G67" s="159"/>
+      <c r="H67" s="160"/>
+      <c r="I67" s="161"/>
+      <c r="J67" s="159"/>
+      <c r="K67" s="159"/>
+      <c r="L67" s="160"/>
+      <c r="M67" s="161"/>
+      <c r="N67" s="159"/>
+      <c r="O67" s="159"/>
+      <c r="P67" s="160"/>
+      <c r="Q67" s="161"/>
+      <c r="R67" s="159"/>
+      <c r="S67" s="159"/>
+      <c r="T67" s="160"/>
+      <c r="U67" s="161"/>
+      <c r="V67" s="159"/>
+      <c r="W67" s="159"/>
+      <c r="X67" s="160"/>
+    </row>
+    <row r="68" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C68" s="167"/>
+      <c r="D68" s="176"/>
+      <c r="E68" s="159"/>
+      <c r="F68" s="159"/>
+      <c r="G68" s="159"/>
+      <c r="H68" s="160"/>
+      <c r="I68" s="161"/>
+      <c r="J68" s="159"/>
+      <c r="K68" s="159"/>
+      <c r="L68" s="160"/>
+      <c r="M68" s="161"/>
+      <c r="N68" s="159"/>
+      <c r="O68" s="159"/>
+      <c r="P68" s="160"/>
+      <c r="Q68" s="161"/>
+      <c r="R68" s="159"/>
+      <c r="S68" s="159"/>
+      <c r="T68" s="160"/>
+      <c r="U68" s="161"/>
+      <c r="V68" s="159"/>
+      <c r="W68" s="159"/>
+      <c r="X68" s="160"/>
+    </row>
+    <row r="69" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C69" s="167"/>
+      <c r="D69" s="176"/>
+      <c r="E69" s="159"/>
+      <c r="F69" s="159"/>
+      <c r="G69" s="159"/>
+      <c r="H69" s="160"/>
+      <c r="I69" s="161"/>
+      <c r="J69" s="159"/>
+      <c r="K69" s="159"/>
+      <c r="L69" s="160"/>
+      <c r="M69" s="161"/>
+      <c r="N69" s="159"/>
+      <c r="O69" s="159"/>
+      <c r="P69" s="160"/>
+      <c r="Q69" s="161"/>
+      <c r="R69" s="159"/>
+      <c r="S69" s="159"/>
+      <c r="T69" s="160"/>
+      <c r="U69" s="161"/>
+      <c r="V69" s="159"/>
+      <c r="W69" s="159"/>
+      <c r="X69" s="160"/>
+    </row>
+    <row r="70" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C70" s="167"/>
+      <c r="D70" s="176"/>
+      <c r="E70" s="159"/>
+      <c r="F70" s="159"/>
+      <c r="G70" s="159"/>
+      <c r="H70" s="160"/>
+      <c r="I70" s="161"/>
+      <c r="J70" s="159"/>
+      <c r="K70" s="159"/>
+      <c r="L70" s="160"/>
+      <c r="M70" s="161"/>
+      <c r="N70" s="159"/>
+      <c r="O70" s="159"/>
+      <c r="P70" s="160"/>
+      <c r="Q70" s="161"/>
+      <c r="R70" s="159"/>
+      <c r="S70" s="159"/>
+      <c r="T70" s="160"/>
+      <c r="U70" s="161"/>
+      <c r="V70" s="159"/>
+      <c r="W70" s="159"/>
+      <c r="X70" s="160"/>
+    </row>
+    <row r="71" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C71" s="167"/>
+      <c r="D71" s="176"/>
+      <c r="E71" s="159"/>
+      <c r="F71" s="159"/>
+      <c r="G71" s="159"/>
+      <c r="H71" s="160"/>
+      <c r="I71" s="161"/>
+      <c r="J71" s="159"/>
+      <c r="K71" s="159"/>
+      <c r="L71" s="160"/>
+      <c r="M71" s="161"/>
+      <c r="N71" s="159"/>
+      <c r="O71" s="159"/>
+      <c r="P71" s="160"/>
+      <c r="Q71" s="161"/>
+      <c r="R71" s="159"/>
+      <c r="S71" s="159"/>
+      <c r="T71" s="160"/>
+      <c r="U71" s="161"/>
+      <c r="V71" s="159"/>
+      <c r="W71" s="159"/>
+      <c r="X71" s="160"/>
+    </row>
+    <row r="72" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C72" s="167"/>
+      <c r="D72" s="176"/>
+      <c r="E72" s="159"/>
+      <c r="F72" s="159"/>
+      <c r="G72" s="159"/>
+      <c r="H72" s="160"/>
+      <c r="I72" s="161"/>
+      <c r="J72" s="159"/>
+      <c r="K72" s="159"/>
+      <c r="L72" s="160"/>
+      <c r="M72" s="161"/>
+      <c r="N72" s="159"/>
+      <c r="O72" s="159"/>
+      <c r="P72" s="160"/>
+      <c r="Q72" s="161"/>
+      <c r="R72" s="159"/>
+      <c r="S72" s="159"/>
+      <c r="T72" s="160"/>
+      <c r="U72" s="161"/>
+      <c r="V72" s="159"/>
+      <c r="W72" s="159"/>
+      <c r="X72" s="160"/>
+    </row>
+    <row r="73" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C73" s="167"/>
+      <c r="D73" s="176"/>
+      <c r="E73" s="159"/>
+      <c r="F73" s="159"/>
+      <c r="G73" s="159"/>
+      <c r="H73" s="160"/>
+      <c r="I73" s="161"/>
+      <c r="J73" s="159"/>
+      <c r="K73" s="159"/>
+      <c r="L73" s="160"/>
+      <c r="M73" s="161"/>
+      <c r="N73" s="159"/>
+      <c r="O73" s="159"/>
+      <c r="P73" s="160"/>
+      <c r="Q73" s="161"/>
+      <c r="R73" s="159"/>
+      <c r="S73" s="159"/>
+      <c r="T73" s="160"/>
+      <c r="U73" s="161"/>
+      <c r="V73" s="159"/>
+      <c r="W73" s="159"/>
+      <c r="X73" s="160"/>
+    </row>
+    <row r="74" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C74" s="167"/>
+      <c r="D74" s="176"/>
+      <c r="E74" s="159"/>
+      <c r="F74" s="159"/>
+      <c r="G74" s="159"/>
+      <c r="H74" s="160"/>
+      <c r="I74" s="161"/>
+      <c r="J74" s="159"/>
+      <c r="K74" s="159"/>
+      <c r="L74" s="160"/>
+      <c r="M74" s="161"/>
+      <c r="N74" s="159"/>
+      <c r="O74" s="159"/>
+      <c r="P74" s="160"/>
+      <c r="Q74" s="161"/>
+      <c r="R74" s="159"/>
+      <c r="S74" s="159"/>
+      <c r="T74" s="160"/>
+      <c r="U74" s="161"/>
+      <c r="V74" s="159"/>
+      <c r="W74" s="159"/>
+      <c r="X74" s="160"/>
+    </row>
+    <row r="75" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C75" s="167"/>
+      <c r="D75" s="176"/>
+      <c r="E75" s="159"/>
+      <c r="F75" s="159"/>
+      <c r="G75" s="159"/>
+      <c r="H75" s="160"/>
+      <c r="I75" s="161"/>
+      <c r="J75" s="159"/>
+      <c r="K75" s="159"/>
+      <c r="L75" s="160"/>
+      <c r="M75" s="161"/>
+      <c r="N75" s="159"/>
+      <c r="O75" s="159"/>
+      <c r="P75" s="160"/>
+      <c r="Q75" s="161"/>
+      <c r="R75" s="159"/>
+      <c r="S75" s="159"/>
+      <c r="T75" s="160"/>
+      <c r="U75" s="161"/>
+      <c r="V75" s="159"/>
+      <c r="W75" s="159"/>
+      <c r="X75" s="160"/>
+    </row>
+    <row r="76" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C76" s="167"/>
+      <c r="D76" s="176"/>
+      <c r="E76" s="159"/>
+      <c r="F76" s="159"/>
+      <c r="G76" s="159"/>
+      <c r="H76" s="160"/>
+      <c r="I76" s="161"/>
+      <c r="J76" s="159"/>
+      <c r="K76" s="159"/>
+      <c r="L76" s="160"/>
+      <c r="M76" s="161"/>
+      <c r="N76" s="159"/>
+      <c r="O76" s="159"/>
+      <c r="P76" s="160"/>
+      <c r="Q76" s="161"/>
+      <c r="R76" s="159"/>
+      <c r="S76" s="159"/>
+      <c r="T76" s="160"/>
+      <c r="U76" s="161"/>
+      <c r="V76" s="159"/>
+      <c r="W76" s="159"/>
+      <c r="X76" s="160"/>
+    </row>
+    <row r="77" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C77" s="167"/>
+      <c r="D77" s="176"/>
+      <c r="E77" s="159"/>
+      <c r="F77" s="159"/>
+      <c r="G77" s="159"/>
+      <c r="H77" s="160"/>
+      <c r="I77" s="161"/>
+      <c r="J77" s="159"/>
+      <c r="K77" s="159"/>
+      <c r="L77" s="160"/>
+      <c r="M77" s="161"/>
+      <c r="N77" s="159"/>
+      <c r="O77" s="159"/>
+      <c r="P77" s="160"/>
+      <c r="Q77" s="161"/>
+      <c r="R77" s="159"/>
+      <c r="S77" s="159"/>
+      <c r="T77" s="160"/>
+      <c r="U77" s="161"/>
+      <c r="V77" s="159"/>
+      <c r="W77" s="159"/>
+      <c r="X77" s="160"/>
+    </row>
+    <row r="78" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C78" s="167"/>
+      <c r="D78" s="176"/>
+      <c r="E78" s="159"/>
+      <c r="F78" s="159"/>
+      <c r="G78" s="159"/>
+      <c r="H78" s="160"/>
+      <c r="I78" s="161"/>
+      <c r="J78" s="159"/>
+      <c r="K78" s="159"/>
+      <c r="L78" s="160"/>
+      <c r="M78" s="161"/>
+      <c r="N78" s="159"/>
+      <c r="O78" s="159"/>
+      <c r="P78" s="160"/>
+      <c r="Q78" s="161"/>
+      <c r="R78" s="159"/>
+      <c r="S78" s="159"/>
+      <c r="T78" s="160"/>
+      <c r="U78" s="161"/>
+      <c r="V78" s="159"/>
+      <c r="W78" s="159"/>
+      <c r="X78" s="160"/>
+    </row>
+    <row r="79" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C79" s="167"/>
+      <c r="D79" s="176"/>
+      <c r="E79" s="159"/>
+      <c r="F79" s="159"/>
+      <c r="G79" s="159"/>
+      <c r="H79" s="160"/>
+      <c r="I79" s="161"/>
+      <c r="J79" s="159"/>
+      <c r="K79" s="159"/>
+      <c r="L79" s="160"/>
+      <c r="M79" s="161"/>
+      <c r="N79" s="159"/>
+      <c r="O79" s="159"/>
+      <c r="P79" s="160"/>
+      <c r="Q79" s="161"/>
+      <c r="R79" s="159"/>
+      <c r="S79" s="159"/>
+      <c r="T79" s="160"/>
+      <c r="U79" s="161"/>
+      <c r="V79" s="159"/>
+      <c r="W79" s="159"/>
+      <c r="X79" s="160"/>
+    </row>
+    <row r="80" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C80" s="167"/>
+      <c r="D80" s="176"/>
+      <c r="E80" s="159"/>
+      <c r="F80" s="159"/>
+      <c r="G80" s="159"/>
+      <c r="H80" s="160"/>
+      <c r="I80" s="161"/>
+      <c r="J80" s="159"/>
+      <c r="K80" s="159"/>
+      <c r="L80" s="160"/>
+      <c r="M80" s="161"/>
+      <c r="N80" s="159"/>
+      <c r="O80" s="159"/>
+      <c r="P80" s="160"/>
+      <c r="Q80" s="161"/>
+      <c r="R80" s="159"/>
+      <c r="S80" s="159"/>
+      <c r="T80" s="160"/>
+      <c r="U80" s="161"/>
+      <c r="V80" s="159"/>
+      <c r="W80" s="159"/>
+      <c r="X80" s="160"/>
+    </row>
+    <row r="81" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C81" s="167"/>
+      <c r="D81" s="176"/>
+      <c r="E81" s="159"/>
+      <c r="F81" s="159"/>
+      <c r="G81" s="159"/>
+      <c r="H81" s="160"/>
+      <c r="I81" s="161"/>
+      <c r="J81" s="159"/>
+      <c r="K81" s="159"/>
+      <c r="L81" s="160"/>
+      <c r="M81" s="161"/>
+      <c r="N81" s="159"/>
+      <c r="O81" s="159"/>
+      <c r="P81" s="160"/>
+      <c r="Q81" s="161"/>
+      <c r="R81" s="159"/>
+      <c r="S81" s="159"/>
+      <c r="T81" s="160"/>
+      <c r="U81" s="161"/>
+      <c r="V81" s="159"/>
+      <c r="W81" s="159"/>
+      <c r="X81" s="160"/>
+    </row>
+    <row r="82" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C82" s="167"/>
+      <c r="D82" s="176"/>
+      <c r="E82" s="159"/>
+      <c r="F82" s="159"/>
+      <c r="G82" s="159"/>
+      <c r="H82" s="160"/>
+      <c r="I82" s="161"/>
+      <c r="J82" s="159"/>
+      <c r="K82" s="159"/>
+      <c r="L82" s="160"/>
+      <c r="M82" s="161"/>
+      <c r="N82" s="159"/>
+      <c r="O82" s="159"/>
+      <c r="P82" s="160"/>
+      <c r="Q82" s="161"/>
+      <c r="R82" s="159"/>
+      <c r="S82" s="159"/>
+      <c r="T82" s="160"/>
+      <c r="U82" s="161"/>
+      <c r="V82" s="159"/>
+      <c r="W82" s="159"/>
+      <c r="X82" s="160"/>
+    </row>
+    <row r="83" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C83" s="167"/>
+      <c r="D83" s="176"/>
+      <c r="E83" s="159"/>
+      <c r="F83" s="159"/>
+      <c r="G83" s="159"/>
+      <c r="H83" s="160"/>
+      <c r="I83" s="161"/>
+      <c r="J83" s="159"/>
+      <c r="K83" s="159"/>
+      <c r="L83" s="160"/>
+      <c r="M83" s="161"/>
+      <c r="N83" s="159"/>
+      <c r="O83" s="159"/>
+      <c r="P83" s="160"/>
+      <c r="Q83" s="161"/>
+      <c r="R83" s="159"/>
+      <c r="S83" s="159"/>
+      <c r="T83" s="160"/>
+      <c r="U83" s="161"/>
+      <c r="V83" s="159"/>
+      <c r="W83" s="159"/>
+      <c r="X83" s="160"/>
+    </row>
+    <row r="84" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C84" s="167"/>
+      <c r="D84" s="176"/>
+      <c r="E84" s="159"/>
+      <c r="F84" s="159"/>
+      <c r="G84" s="159"/>
+      <c r="H84" s="160"/>
+      <c r="I84" s="161"/>
+      <c r="J84" s="159"/>
+      <c r="K84" s="159"/>
+      <c r="L84" s="160"/>
+      <c r="M84" s="161"/>
+      <c r="N84" s="159"/>
+      <c r="O84" s="159"/>
+      <c r="P84" s="160"/>
+      <c r="Q84" s="161"/>
+      <c r="R84" s="159"/>
+      <c r="S84" s="159"/>
+      <c r="T84" s="160"/>
+      <c r="U84" s="161"/>
+      <c r="V84" s="159"/>
+      <c r="W84" s="159"/>
+      <c r="X84" s="160"/>
+    </row>
+    <row r="85" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C85" s="167"/>
+      <c r="D85" s="176"/>
+      <c r="E85" s="159"/>
+      <c r="F85" s="159"/>
+      <c r="G85" s="159"/>
+      <c r="H85" s="160"/>
+      <c r="I85" s="161"/>
+      <c r="J85" s="159"/>
+      <c r="K85" s="159"/>
+      <c r="L85" s="160"/>
+      <c r="M85" s="161"/>
+      <c r="N85" s="159"/>
+      <c r="O85" s="159"/>
+      <c r="P85" s="160"/>
+      <c r="Q85" s="161"/>
+      <c r="R85" s="159"/>
+      <c r="S85" s="159"/>
+      <c r="T85" s="160"/>
+      <c r="U85" s="161"/>
+      <c r="V85" s="159"/>
+      <c r="W85" s="159"/>
+      <c r="X85" s="160"/>
+    </row>
+    <row r="86" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C86" s="167"/>
+      <c r="D86" s="176"/>
+      <c r="E86" s="159"/>
+      <c r="F86" s="159"/>
+      <c r="G86" s="159"/>
+      <c r="H86" s="160"/>
+      <c r="I86" s="161"/>
+      <c r="J86" s="159"/>
+      <c r="K86" s="159"/>
+      <c r="L86" s="160"/>
+      <c r="M86" s="161"/>
+      <c r="N86" s="159"/>
+      <c r="O86" s="159"/>
+      <c r="P86" s="160"/>
+      <c r="Q86" s="161"/>
+      <c r="R86" s="159"/>
+      <c r="S86" s="159"/>
+      <c r="T86" s="160"/>
+      <c r="U86" s="161"/>
+      <c r="V86" s="159"/>
+      <c r="W86" s="159"/>
+      <c r="X86" s="160"/>
+    </row>
+    <row r="87" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C87" s="167"/>
+      <c r="D87" s="176"/>
+      <c r="E87" s="159"/>
+      <c r="F87" s="159"/>
+      <c r="G87" s="159"/>
+      <c r="H87" s="160"/>
+      <c r="I87" s="161"/>
+      <c r="J87" s="159"/>
+      <c r="K87" s="159"/>
+      <c r="L87" s="160"/>
+      <c r="M87" s="161"/>
+      <c r="N87" s="159"/>
+      <c r="O87" s="159"/>
+      <c r="P87" s="160"/>
+      <c r="Q87" s="161"/>
+      <c r="R87" s="159"/>
+      <c r="S87" s="159"/>
+      <c r="T87" s="160"/>
+      <c r="U87" s="161"/>
+      <c r="V87" s="159"/>
+      <c r="W87" s="159"/>
+      <c r="X87" s="160"/>
+    </row>
+    <row r="88" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C88" s="167"/>
+      <c r="D88" s="176"/>
+      <c r="E88" s="159"/>
+      <c r="F88" s="159"/>
+      <c r="G88" s="159"/>
+      <c r="H88" s="160"/>
+      <c r="I88" s="161"/>
+      <c r="J88" s="159"/>
+      <c r="K88" s="159"/>
+      <c r="L88" s="160"/>
+      <c r="M88" s="161"/>
+      <c r="N88" s="159"/>
+      <c r="O88" s="159"/>
+      <c r="P88" s="160"/>
+      <c r="Q88" s="161"/>
+      <c r="R88" s="159"/>
+      <c r="S88" s="159"/>
+      <c r="T88" s="160"/>
+      <c r="U88" s="161"/>
+      <c r="V88" s="159"/>
+      <c r="W88" s="159"/>
+      <c r="X88" s="160"/>
+    </row>
+    <row r="89" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C89" s="167"/>
+      <c r="D89" s="176"/>
+      <c r="E89" s="159"/>
+      <c r="F89" s="159"/>
+      <c r="G89" s="159"/>
+      <c r="H89" s="160"/>
+      <c r="I89" s="161"/>
+      <c r="J89" s="159"/>
+      <c r="K89" s="159"/>
+      <c r="L89" s="160"/>
+      <c r="M89" s="161"/>
+      <c r="N89" s="159"/>
+      <c r="O89" s="159"/>
+      <c r="P89" s="160"/>
+      <c r="Q89" s="161"/>
+      <c r="R89" s="159"/>
+      <c r="S89" s="159"/>
+      <c r="T89" s="160"/>
+      <c r="U89" s="161"/>
+      <c r="V89" s="159"/>
+      <c r="W89" s="159"/>
+      <c r="X89" s="160"/>
+    </row>
+    <row r="90" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C90" s="167"/>
+      <c r="D90" s="176"/>
+      <c r="E90" s="159"/>
+      <c r="F90" s="159"/>
+      <c r="G90" s="159"/>
+      <c r="H90" s="160"/>
+      <c r="I90" s="161"/>
+      <c r="J90" s="159"/>
+      <c r="K90" s="159"/>
+      <c r="L90" s="160"/>
+      <c r="M90" s="161"/>
+      <c r="N90" s="159"/>
+      <c r="O90" s="159"/>
+      <c r="P90" s="160"/>
+      <c r="Q90" s="161"/>
+      <c r="R90" s="159"/>
+      <c r="S90" s="159"/>
+      <c r="T90" s="160"/>
+      <c r="U90" s="161"/>
+      <c r="V90" s="159"/>
+      <c r="W90" s="159"/>
+      <c r="X90" s="160"/>
+    </row>
+    <row r="91" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C91" s="167"/>
+      <c r="D91" s="176"/>
+      <c r="E91" s="159"/>
+      <c r="F91" s="159"/>
+      <c r="G91" s="159"/>
+      <c r="H91" s="160"/>
+      <c r="I91" s="161"/>
+      <c r="J91" s="159"/>
+      <c r="K91" s="159"/>
+      <c r="L91" s="160"/>
+      <c r="M91" s="161"/>
+      <c r="N91" s="159"/>
+      <c r="O91" s="159"/>
+      <c r="P91" s="160"/>
+      <c r="Q91" s="161"/>
+      <c r="R91" s="159"/>
+      <c r="S91" s="159"/>
+      <c r="T91" s="160"/>
+      <c r="U91" s="161"/>
+      <c r="V91" s="159"/>
+      <c r="W91" s="159"/>
+      <c r="X91" s="160"/>
+    </row>
+    <row r="92" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C92" s="167"/>
+      <c r="D92" s="176"/>
+      <c r="E92" s="159"/>
+      <c r="F92" s="159"/>
+      <c r="G92" s="159"/>
+      <c r="H92" s="160"/>
+      <c r="I92" s="161"/>
+      <c r="J92" s="159"/>
+      <c r="K92" s="159"/>
+      <c r="L92" s="160"/>
+      <c r="M92" s="161"/>
+      <c r="N92" s="159"/>
+      <c r="O92" s="159"/>
+      <c r="P92" s="160"/>
+      <c r="Q92" s="161"/>
+      <c r="R92" s="159"/>
+      <c r="S92" s="159"/>
+      <c r="T92" s="160"/>
+      <c r="U92" s="161"/>
+      <c r="V92" s="159"/>
+      <c r="W92" s="159"/>
+      <c r="X92" s="160"/>
+    </row>
+    <row r="93" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C93" s="167"/>
+      <c r="D93" s="176"/>
+      <c r="E93" s="159"/>
+      <c r="F93" s="159"/>
+      <c r="G93" s="159"/>
+      <c r="H93" s="160"/>
+      <c r="I93" s="161"/>
+      <c r="J93" s="159"/>
+      <c r="K93" s="159"/>
+      <c r="L93" s="160"/>
+      <c r="M93" s="161"/>
+      <c r="N93" s="159"/>
+      <c r="O93" s="159"/>
+      <c r="P93" s="160"/>
+      <c r="Q93" s="161"/>
+      <c r="R93" s="159"/>
+      <c r="S93" s="159"/>
+      <c r="T93" s="160"/>
+      <c r="U93" s="161"/>
+      <c r="V93" s="159"/>
+      <c r="W93" s="159"/>
+      <c r="X93" s="160"/>
+    </row>
+    <row r="94" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C94" s="167"/>
+      <c r="D94" s="176"/>
+      <c r="E94" s="159"/>
+      <c r="F94" s="159"/>
+      <c r="G94" s="159"/>
+      <c r="H94" s="160"/>
+      <c r="I94" s="161"/>
+      <c r="J94" s="159"/>
+      <c r="K94" s="159"/>
+      <c r="L94" s="160"/>
+      <c r="M94" s="161"/>
+      <c r="N94" s="159"/>
+      <c r="O94" s="159"/>
+      <c r="P94" s="160"/>
+      <c r="Q94" s="161"/>
+      <c r="R94" s="159"/>
+      <c r="S94" s="159"/>
+      <c r="T94" s="160"/>
+      <c r="U94" s="161"/>
+      <c r="V94" s="159"/>
+      <c r="W94" s="159"/>
+      <c r="X94" s="160"/>
+    </row>
+    <row r="95" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C95" s="167"/>
+      <c r="D95" s="176"/>
+      <c r="E95" s="159"/>
+      <c r="F95" s="159"/>
+      <c r="G95" s="159"/>
+      <c r="H95" s="160"/>
+      <c r="I95" s="161"/>
+      <c r="J95" s="159"/>
+      <c r="K95" s="159"/>
+      <c r="L95" s="160"/>
+      <c r="M95" s="161"/>
+      <c r="N95" s="159"/>
+      <c r="O95" s="159"/>
+      <c r="P95" s="160"/>
+      <c r="Q95" s="161"/>
+      <c r="R95" s="159"/>
+      <c r="S95" s="159"/>
+      <c r="T95" s="160"/>
+      <c r="U95" s="161"/>
+      <c r="V95" s="159"/>
+      <c r="W95" s="159"/>
+      <c r="X95" s="160"/>
+    </row>
+    <row r="96" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C96" s="167"/>
+      <c r="D96" s="176"/>
+      <c r="E96" s="159"/>
+      <c r="F96" s="159"/>
+      <c r="G96" s="159"/>
+      <c r="H96" s="160"/>
+      <c r="I96" s="161"/>
+      <c r="J96" s="159"/>
+      <c r="K96" s="159"/>
+      <c r="L96" s="160"/>
+      <c r="M96" s="161"/>
+      <c r="N96" s="159"/>
+      <c r="O96" s="159"/>
+      <c r="P96" s="160"/>
+      <c r="Q96" s="161"/>
+      <c r="R96" s="159"/>
+      <c r="S96" s="159"/>
+      <c r="T96" s="160"/>
+      <c r="U96" s="161"/>
+      <c r="V96" s="159"/>
+      <c r="W96" s="159"/>
+      <c r="X96" s="160"/>
+    </row>
+    <row r="97" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C97" s="167"/>
+      <c r="D97" s="176"/>
+      <c r="E97" s="159"/>
+      <c r="F97" s="159"/>
+      <c r="G97" s="159"/>
+      <c r="H97" s="160"/>
+      <c r="I97" s="161"/>
+      <c r="J97" s="159"/>
+      <c r="K97" s="159"/>
+      <c r="L97" s="160"/>
+      <c r="M97" s="161"/>
+      <c r="N97" s="159"/>
+      <c r="O97" s="159"/>
+      <c r="P97" s="160"/>
+      <c r="Q97" s="161"/>
+      <c r="R97" s="159"/>
+      <c r="S97" s="159"/>
+      <c r="T97" s="160"/>
+      <c r="U97" s="161"/>
+      <c r="V97" s="159"/>
+      <c r="W97" s="159"/>
+      <c r="X97" s="160"/>
+    </row>
+    <row r="98" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C98" s="167"/>
+      <c r="D98" s="176"/>
+      <c r="E98" s="159"/>
+      <c r="F98" s="159"/>
+      <c r="G98" s="159"/>
+      <c r="H98" s="160"/>
+      <c r="I98" s="161"/>
+      <c r="J98" s="159"/>
+      <c r="K98" s="159"/>
+      <c r="L98" s="160"/>
+      <c r="M98" s="161"/>
+      <c r="N98" s="159"/>
+      <c r="O98" s="159"/>
+      <c r="P98" s="160"/>
+      <c r="Q98" s="161"/>
+      <c r="R98" s="159"/>
+      <c r="S98" s="159"/>
+      <c r="T98" s="160"/>
+      <c r="U98" s="161"/>
+      <c r="V98" s="159"/>
+      <c r="W98" s="159"/>
+      <c r="X98" s="160"/>
+    </row>
+    <row r="99" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C99" s="167"/>
+      <c r="D99" s="176"/>
+      <c r="E99" s="159"/>
+      <c r="F99" s="159"/>
+      <c r="G99" s="159"/>
+      <c r="H99" s="160"/>
+      <c r="I99" s="161"/>
+      <c r="J99" s="159"/>
+      <c r="K99" s="159"/>
+      <c r="L99" s="160"/>
+      <c r="M99" s="161"/>
+      <c r="N99" s="159"/>
+      <c r="O99" s="159"/>
+      <c r="P99" s="160"/>
+      <c r="Q99" s="161"/>
+      <c r="R99" s="159"/>
+      <c r="S99" s="159"/>
+      <c r="T99" s="160"/>
+      <c r="U99" s="161"/>
+      <c r="V99" s="159"/>
+      <c r="W99" s="159"/>
+      <c r="X99" s="160"/>
+    </row>
+    <row r="100" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C100" s="167"/>
+      <c r="D100" s="176"/>
+      <c r="E100" s="159"/>
+      <c r="F100" s="159"/>
+      <c r="G100" s="159"/>
+      <c r="H100" s="160"/>
+      <c r="I100" s="161"/>
+      <c r="J100" s="159"/>
+      <c r="K100" s="159"/>
+      <c r="L100" s="160"/>
+      <c r="M100" s="161"/>
+      <c r="N100" s="159"/>
+      <c r="O100" s="159"/>
+      <c r="P100" s="160"/>
+      <c r="Q100" s="161"/>
+      <c r="R100" s="159"/>
+      <c r="S100" s="159"/>
+      <c r="T100" s="160"/>
+      <c r="U100" s="161"/>
+      <c r="V100" s="159"/>
+      <c r="W100" s="159"/>
+      <c r="X100" s="160"/>
+    </row>
+    <row r="101" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C101" s="167"/>
+      <c r="D101" s="176"/>
+      <c r="E101" s="159"/>
+      <c r="F101" s="159"/>
+      <c r="G101" s="159"/>
+      <c r="H101" s="160"/>
+      <c r="I101" s="161"/>
+      <c r="J101" s="159"/>
+      <c r="K101" s="159"/>
+      <c r="L101" s="160"/>
+      <c r="M101" s="161"/>
+      <c r="N101" s="159"/>
+      <c r="O101" s="159"/>
+      <c r="P101" s="160"/>
+      <c r="Q101" s="161"/>
+      <c r="R101" s="159"/>
+      <c r="S101" s="159"/>
+      <c r="T101" s="160"/>
+      <c r="U101" s="161"/>
+      <c r="V101" s="159"/>
+      <c r="W101" s="159"/>
+      <c r="X101" s="160"/>
+    </row>
+    <row r="102" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C102" s="167"/>
+      <c r="D102" s="176"/>
+      <c r="E102" s="159"/>
+      <c r="F102" s="159"/>
+      <c r="G102" s="159"/>
+      <c r="H102" s="160"/>
+      <c r="I102" s="161"/>
+      <c r="J102" s="159"/>
+      <c r="K102" s="159"/>
+      <c r="L102" s="160"/>
+      <c r="M102" s="161"/>
+      <c r="N102" s="159"/>
+      <c r="O102" s="159"/>
+      <c r="P102" s="160"/>
+      <c r="Q102" s="161"/>
+      <c r="R102" s="159"/>
+      <c r="S102" s="159"/>
+      <c r="T102" s="160"/>
+      <c r="U102" s="161"/>
+      <c r="V102" s="159"/>
+      <c r="W102" s="159"/>
+      <c r="X102" s="160"/>
+    </row>
+    <row r="103" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C103" s="167"/>
+      <c r="D103" s="176"/>
+      <c r="E103" s="159"/>
+      <c r="F103" s="159"/>
+      <c r="G103" s="159"/>
+      <c r="H103" s="160"/>
+      <c r="I103" s="161"/>
+      <c r="J103" s="159"/>
+      <c r="K103" s="159"/>
+      <c r="L103" s="160"/>
+      <c r="M103" s="161"/>
+      <c r="N103" s="159"/>
+      <c r="O103" s="159"/>
+      <c r="P103" s="160"/>
+      <c r="Q103" s="161"/>
+      <c r="R103" s="159"/>
+      <c r="S103" s="159"/>
+      <c r="T103" s="160"/>
+      <c r="U103" s="161"/>
+      <c r="V103" s="159"/>
+      <c r="W103" s="159"/>
+      <c r="X103" s="160"/>
+    </row>
+    <row r="104" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C104" s="167"/>
+      <c r="D104" s="176"/>
+      <c r="E104" s="159"/>
+      <c r="F104" s="159"/>
+      <c r="G104" s="159"/>
+      <c r="H104" s="160"/>
+      <c r="I104" s="161"/>
+      <c r="J104" s="159"/>
+      <c r="K104" s="159"/>
+      <c r="L104" s="160"/>
+      <c r="M104" s="161"/>
+      <c r="N104" s="159"/>
+      <c r="O104" s="159"/>
+      <c r="P104" s="160"/>
+      <c r="Q104" s="161"/>
+      <c r="R104" s="159"/>
+      <c r="S104" s="159"/>
+      <c r="T104" s="160"/>
+      <c r="U104" s="161"/>
+      <c r="V104" s="159"/>
+      <c r="W104" s="159"/>
+      <c r="X104" s="160"/>
+    </row>
+    <row r="105" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C105" s="167"/>
+      <c r="D105" s="176"/>
+      <c r="E105" s="159"/>
+      <c r="F105" s="159"/>
+      <c r="G105" s="159"/>
+      <c r="H105" s="160"/>
+      <c r="I105" s="161"/>
+      <c r="J105" s="159"/>
+      <c r="K105" s="159"/>
+      <c r="L105" s="160"/>
+      <c r="M105" s="161"/>
+      <c r="N105" s="159"/>
+      <c r="O105" s="159"/>
+      <c r="P105" s="160"/>
+      <c r="Q105" s="161"/>
+      <c r="R105" s="159"/>
+      <c r="S105" s="159"/>
+      <c r="T105" s="160"/>
+      <c r="U105" s="161"/>
+      <c r="V105" s="159"/>
+      <c r="W105" s="159"/>
+      <c r="X105" s="160"/>
+    </row>
+    <row r="106" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C106" s="167"/>
+      <c r="D106" s="176"/>
+      <c r="E106" s="159"/>
+      <c r="F106" s="159"/>
+      <c r="G106" s="159"/>
+      <c r="H106" s="160"/>
+      <c r="I106" s="161"/>
+      <c r="J106" s="159"/>
+      <c r="K106" s="159"/>
+      <c r="L106" s="160"/>
+      <c r="M106" s="161"/>
+      <c r="N106" s="159"/>
+      <c r="O106" s="159"/>
+      <c r="P106" s="160"/>
+      <c r="Q106" s="161"/>
+      <c r="R106" s="159"/>
+      <c r="S106" s="159"/>
+      <c r="T106" s="160"/>
+      <c r="U106" s="161"/>
+      <c r="V106" s="159"/>
+      <c r="W106" s="159"/>
+      <c r="X106" s="160"/>
+    </row>
+    <row r="107" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C107" s="167"/>
+      <c r="D107" s="176"/>
+      <c r="E107" s="159"/>
+      <c r="F107" s="159"/>
+      <c r="G107" s="159"/>
+      <c r="H107" s="160"/>
+      <c r="I107" s="161"/>
+      <c r="J107" s="159"/>
+      <c r="K107" s="159"/>
+      <c r="L107" s="160"/>
+      <c r="M107" s="161"/>
+      <c r="N107" s="159"/>
+      <c r="O107" s="159"/>
+      <c r="P107" s="160"/>
+      <c r="Q107" s="161"/>
+      <c r="R107" s="159"/>
+      <c r="S107" s="159"/>
+      <c r="T107" s="160"/>
+      <c r="U107" s="161"/>
+      <c r="V107" s="159"/>
+      <c r="W107" s="159"/>
+      <c r="X107" s="160"/>
+    </row>
+    <row r="108" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C108" s="167"/>
+      <c r="D108" s="176"/>
+      <c r="E108" s="159"/>
+      <c r="F108" s="159"/>
+      <c r="G108" s="159"/>
+      <c r="H108" s="160"/>
+      <c r="I108" s="161"/>
+      <c r="J108" s="159"/>
+      <c r="K108" s="159"/>
+      <c r="L108" s="160"/>
+      <c r="M108" s="161"/>
+      <c r="N108" s="159"/>
+      <c r="O108" s="159"/>
+      <c r="P108" s="160"/>
+      <c r="Q108" s="161"/>
+      <c r="R108" s="159"/>
+      <c r="S108" s="159"/>
+      <c r="T108" s="160"/>
+      <c r="U108" s="161"/>
+      <c r="V108" s="159"/>
+      <c r="W108" s="159"/>
+      <c r="X108" s="160"/>
+    </row>
+    <row r="109" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C109" s="167"/>
+      <c r="D109" s="176"/>
+      <c r="E109" s="159"/>
+      <c r="F109" s="159"/>
+      <c r="G109" s="159"/>
+      <c r="H109" s="160"/>
+      <c r="I109" s="161"/>
+      <c r="J109" s="159"/>
+      <c r="K109" s="159"/>
+      <c r="L109" s="160"/>
+      <c r="M109" s="161"/>
+      <c r="N109" s="159"/>
+      <c r="O109" s="159"/>
+      <c r="P109" s="160"/>
+      <c r="Q109" s="161"/>
+      <c r="R109" s="159"/>
+      <c r="S109" s="159"/>
+      <c r="T109" s="160"/>
+      <c r="U109" s="161"/>
+      <c r="V109" s="159"/>
+      <c r="W109" s="159"/>
+      <c r="X109" s="160"/>
+    </row>
+    <row r="110" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C110" s="167"/>
+      <c r="D110" s="176"/>
+      <c r="E110" s="159"/>
+      <c r="F110" s="159"/>
+      <c r="G110" s="159"/>
+      <c r="H110" s="160"/>
+      <c r="I110" s="161"/>
+      <c r="J110" s="159"/>
+      <c r="K110" s="159"/>
+      <c r="L110" s="160"/>
+      <c r="M110" s="161"/>
+      <c r="N110" s="159"/>
+      <c r="O110" s="159"/>
+      <c r="P110" s="160"/>
+      <c r="Q110" s="161"/>
+      <c r="R110" s="159"/>
+      <c r="S110" s="159"/>
+      <c r="T110" s="160"/>
+      <c r="U110" s="161"/>
+      <c r="V110" s="159"/>
+      <c r="W110" s="159"/>
+      <c r="X110" s="160"/>
+    </row>
+    <row r="111" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C111" s="167"/>
+      <c r="D111" s="176"/>
+      <c r="E111" s="159"/>
+      <c r="F111" s="159"/>
+      <c r="G111" s="159"/>
+      <c r="H111" s="160"/>
+      <c r="I111" s="161"/>
+      <c r="J111" s="159"/>
+      <c r="K111" s="159"/>
+      <c r="L111" s="160"/>
+      <c r="M111" s="161"/>
+      <c r="N111" s="159"/>
+      <c r="O111" s="159"/>
+      <c r="P111" s="160"/>
+      <c r="Q111" s="161"/>
+      <c r="R111" s="159"/>
+      <c r="S111" s="159"/>
+      <c r="T111" s="160"/>
+      <c r="U111" s="161"/>
+      <c r="V111" s="159"/>
+      <c r="W111" s="159"/>
+      <c r="X111" s="160"/>
+    </row>
+    <row r="112" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C112" s="167"/>
+      <c r="D112" s="176"/>
+      <c r="E112" s="159"/>
+      <c r="F112" s="159"/>
+      <c r="G112" s="159"/>
+      <c r="H112" s="160"/>
+      <c r="I112" s="161"/>
+      <c r="J112" s="159"/>
+      <c r="K112" s="159"/>
+      <c r="L112" s="160"/>
+      <c r="M112" s="161"/>
+      <c r="N112" s="159"/>
+      <c r="O112" s="159"/>
+      <c r="P112" s="160"/>
+      <c r="Q112" s="161"/>
+      <c r="R112" s="159"/>
+      <c r="S112" s="159"/>
+      <c r="T112" s="160"/>
+      <c r="U112" s="161"/>
+      <c r="V112" s="159"/>
+      <c r="W112" s="159"/>
+      <c r="X112" s="160"/>
+    </row>
+    <row r="113" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C113" s="167"/>
+      <c r="D113" s="176"/>
+      <c r="E113" s="159"/>
+      <c r="F113" s="159"/>
+      <c r="G113" s="159"/>
+      <c r="H113" s="160"/>
+      <c r="I113" s="161"/>
+      <c r="J113" s="159"/>
+      <c r="K113" s="159"/>
+      <c r="L113" s="160"/>
+      <c r="M113" s="161"/>
+      <c r="N113" s="159"/>
+      <c r="O113" s="159"/>
+      <c r="P113" s="160"/>
+      <c r="Q113" s="161"/>
+      <c r="R113" s="159"/>
+      <c r="S113" s="159"/>
+      <c r="T113" s="160"/>
+      <c r="U113" s="161"/>
+      <c r="V113" s="159"/>
+      <c r="W113" s="159"/>
+      <c r="X113" s="160"/>
+    </row>
+    <row r="114" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C114" s="167"/>
+      <c r="D114" s="176"/>
+      <c r="E114" s="159"/>
+      <c r="F114" s="159"/>
+      <c r="G114" s="159"/>
+      <c r="H114" s="160"/>
+      <c r="I114" s="161"/>
+      <c r="J114" s="159"/>
+      <c r="K114" s="159"/>
+      <c r="L114" s="160"/>
+      <c r="M114" s="161"/>
+      <c r="N114" s="159"/>
+      <c r="O114" s="159"/>
+      <c r="P114" s="160"/>
+      <c r="Q114" s="161"/>
+      <c r="R114" s="159"/>
+      <c r="S114" s="159"/>
+      <c r="T114" s="160"/>
+      <c r="U114" s="161"/>
+      <c r="V114" s="159"/>
+      <c r="W114" s="159"/>
+      <c r="X114" s="160"/>
+    </row>
+    <row r="115" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C115" s="167"/>
+      <c r="D115" s="176"/>
+      <c r="E115" s="159"/>
+      <c r="F115" s="159"/>
+      <c r="G115" s="159"/>
+      <c r="H115" s="160"/>
+      <c r="I115" s="161"/>
+      <c r="J115" s="159"/>
+      <c r="K115" s="159"/>
+      <c r="L115" s="160"/>
+      <c r="M115" s="161"/>
+      <c r="N115" s="159"/>
+      <c r="O115" s="159"/>
+      <c r="P115" s="160"/>
+      <c r="Q115" s="161"/>
+      <c r="R115" s="159"/>
+      <c r="S115" s="159"/>
+      <c r="T115" s="160"/>
+      <c r="U115" s="161"/>
+      <c r="V115" s="159"/>
+      <c r="W115" s="159"/>
+      <c r="X115" s="160"/>
+    </row>
+    <row r="116" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C116" s="167"/>
+      <c r="D116" s="176"/>
+      <c r="E116" s="159"/>
+      <c r="F116" s="159"/>
+      <c r="G116" s="159"/>
+      <c r="H116" s="160"/>
+      <c r="I116" s="161"/>
+      <c r="J116" s="159"/>
+      <c r="K116" s="159"/>
+      <c r="L116" s="160"/>
+      <c r="M116" s="161"/>
+      <c r="N116" s="159"/>
+      <c r="O116" s="159"/>
+      <c r="P116" s="160"/>
+      <c r="Q116" s="161"/>
+      <c r="R116" s="159"/>
+      <c r="S116" s="159"/>
+      <c r="T116" s="160"/>
+      <c r="U116" s="161"/>
+      <c r="V116" s="159"/>
+      <c r="W116" s="159"/>
+      <c r="X116" s="160"/>
+    </row>
+    <row r="117" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C117" s="167"/>
+      <c r="D117" s="176"/>
+      <c r="E117" s="159"/>
+      <c r="F117" s="159"/>
+      <c r="G117" s="159"/>
+      <c r="H117" s="160"/>
+      <c r="I117" s="161"/>
+      <c r="J117" s="159"/>
+      <c r="K117" s="159"/>
+      <c r="L117" s="160"/>
+      <c r="M117" s="161"/>
+      <c r="N117" s="159"/>
+      <c r="O117" s="159"/>
+      <c r="P117" s="160"/>
+      <c r="Q117" s="161"/>
+      <c r="R117" s="159"/>
+      <c r="S117" s="159"/>
+      <c r="T117" s="160"/>
+      <c r="U117" s="161"/>
+      <c r="V117" s="159"/>
+      <c r="W117" s="159"/>
+      <c r="X117" s="160"/>
+    </row>
+    <row r="118" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C118" s="167"/>
+      <c r="D118" s="176"/>
+      <c r="E118" s="159"/>
+      <c r="F118" s="159"/>
+      <c r="G118" s="159"/>
+      <c r="H118" s="160"/>
+      <c r="I118" s="161"/>
+      <c r="J118" s="159"/>
+      <c r="K118" s="159"/>
+      <c r="L118" s="160"/>
+      <c r="M118" s="161"/>
+      <c r="N118" s="159"/>
+      <c r="O118" s="159"/>
+      <c r="P118" s="160"/>
+      <c r="Q118" s="161"/>
+      <c r="R118" s="159"/>
+      <c r="S118" s="159"/>
+      <c r="T118" s="160"/>
+      <c r="U118" s="161"/>
+      <c r="V118" s="159"/>
+      <c r="W118" s="159"/>
+      <c r="X118" s="160"/>
+    </row>
+    <row r="119" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C119" s="167"/>
+      <c r="D119" s="176"/>
+      <c r="E119" s="159"/>
+      <c r="F119" s="159"/>
+      <c r="G119" s="159"/>
+      <c r="H119" s="160"/>
+      <c r="I119" s="161"/>
+      <c r="J119" s="159"/>
+      <c r="K119" s="159"/>
+      <c r="L119" s="160"/>
+      <c r="M119" s="161"/>
+      <c r="N119" s="159"/>
+      <c r="O119" s="159"/>
+      <c r="P119" s="160"/>
+      <c r="Q119" s="161"/>
+      <c r="R119" s="159"/>
+      <c r="S119" s="159"/>
+      <c r="T119" s="160"/>
+      <c r="U119" s="161"/>
+      <c r="V119" s="159"/>
+      <c r="W119" s="159"/>
+      <c r="X119" s="160"/>
+    </row>
+    <row r="120" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C120" s="167"/>
+      <c r="D120" s="176"/>
+      <c r="E120" s="159"/>
+      <c r="F120" s="159"/>
+      <c r="G120" s="159"/>
+      <c r="H120" s="160"/>
+      <c r="I120" s="161"/>
+      <c r="J120" s="159"/>
+      <c r="K120" s="159"/>
+      <c r="L120" s="160"/>
+      <c r="M120" s="161"/>
+      <c r="N120" s="159"/>
+      <c r="O120" s="159"/>
+      <c r="P120" s="160"/>
+      <c r="Q120" s="161"/>
+      <c r="R120" s="159"/>
+      <c r="S120" s="159"/>
+      <c r="T120" s="160"/>
+      <c r="U120" s="161"/>
+      <c r="V120" s="159"/>
+      <c r="W120" s="159"/>
+      <c r="X120" s="160"/>
+    </row>
+    <row r="121" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C121" s="167"/>
+      <c r="D121" s="176"/>
+      <c r="E121" s="159"/>
+      <c r="F121" s="159"/>
+      <c r="G121" s="159"/>
+      <c r="H121" s="160"/>
+      <c r="I121" s="161"/>
+      <c r="J121" s="159"/>
+      <c r="K121" s="159"/>
+      <c r="L121" s="160"/>
+      <c r="M121" s="161"/>
+      <c r="N121" s="159"/>
+      <c r="O121" s="159"/>
+      <c r="P121" s="160"/>
+      <c r="Q121" s="161"/>
+      <c r="R121" s="159"/>
+      <c r="S121" s="159"/>
+      <c r="T121" s="160"/>
+      <c r="U121" s="161"/>
+      <c r="V121" s="159"/>
+      <c r="W121" s="159"/>
+      <c r="X121" s="160"/>
+    </row>
+    <row r="122" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C122" s="167"/>
+      <c r="D122" s="176"/>
+      <c r="E122" s="159"/>
+      <c r="F122" s="159"/>
+      <c r="G122" s="159"/>
+      <c r="H122" s="160"/>
+      <c r="I122" s="161"/>
+      <c r="J122" s="159"/>
+      <c r="K122" s="159"/>
+      <c r="L122" s="160"/>
+      <c r="M122" s="161"/>
+      <c r="N122" s="159"/>
+      <c r="O122" s="159"/>
+      <c r="P122" s="160"/>
+      <c r="Q122" s="161"/>
+      <c r="R122" s="159"/>
+      <c r="S122" s="159"/>
+      <c r="T122" s="160"/>
+      <c r="U122" s="161"/>
+      <c r="V122" s="159"/>
+      <c r="W122" s="159"/>
+      <c r="X122" s="160"/>
+    </row>
+    <row r="123" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C123" s="167"/>
+      <c r="D123" s="176"/>
+      <c r="E123" s="159"/>
+      <c r="F123" s="159"/>
+      <c r="G123" s="159"/>
+      <c r="H123" s="160"/>
+      <c r="I123" s="161"/>
+      <c r="J123" s="159"/>
+      <c r="K123" s="159"/>
+      <c r="L123" s="160"/>
+      <c r="M123" s="161"/>
+      <c r="N123" s="159"/>
+      <c r="O123" s="159"/>
+      <c r="P123" s="160"/>
+      <c r="Q123" s="161"/>
+      <c r="R123" s="159"/>
+      <c r="S123" s="159"/>
+      <c r="T123" s="160"/>
+      <c r="U123" s="161"/>
+      <c r="V123" s="159"/>
+      <c r="W123" s="159"/>
+      <c r="X123" s="160"/>
+    </row>
+    <row r="124" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C124" s="167"/>
+      <c r="D124" s="176"/>
+      <c r="E124" s="159"/>
+      <c r="F124" s="159"/>
+      <c r="G124" s="159"/>
+      <c r="H124" s="160"/>
+      <c r="I124" s="161"/>
+      <c r="J124" s="159"/>
+      <c r="K124" s="159"/>
+      <c r="L124" s="160"/>
+      <c r="M124" s="161"/>
+      <c r="N124" s="159"/>
+      <c r="O124" s="159"/>
+      <c r="P124" s="160"/>
+      <c r="Q124" s="161"/>
+      <c r="R124" s="159"/>
+      <c r="S124" s="159"/>
+      <c r="T124" s="160"/>
+      <c r="U124" s="161"/>
+      <c r="V124" s="159"/>
+      <c r="W124" s="159"/>
+      <c r="X124" s="160"/>
+    </row>
+    <row r="125" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C125" s="167"/>
+      <c r="D125" s="176"/>
+      <c r="E125" s="159"/>
+      <c r="F125" s="159"/>
+      <c r="G125" s="159"/>
+      <c r="H125" s="160"/>
+      <c r="I125" s="161"/>
+      <c r="J125" s="159"/>
+      <c r="K125" s="159"/>
+      <c r="L125" s="160"/>
+      <c r="M125" s="161"/>
+      <c r="N125" s="159"/>
+      <c r="O125" s="159"/>
+      <c r="P125" s="160"/>
+      <c r="Q125" s="161"/>
+      <c r="R125" s="159"/>
+      <c r="S125" s="159"/>
+      <c r="T125" s="160"/>
+      <c r="U125" s="161"/>
+      <c r="V125" s="159"/>
+      <c r="W125" s="159"/>
+      <c r="X125" s="160"/>
+    </row>
+    <row r="126" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C126" s="167"/>
+      <c r="D126" s="176"/>
+      <c r="E126" s="159"/>
+      <c r="F126" s="159"/>
+      <c r="G126" s="159"/>
+      <c r="H126" s="160"/>
+      <c r="I126" s="161"/>
+      <c r="J126" s="159"/>
+      <c r="K126" s="159"/>
+      <c r="L126" s="160"/>
+      <c r="M126" s="161"/>
+      <c r="N126" s="159"/>
+      <c r="O126" s="159"/>
+      <c r="P126" s="160"/>
+      <c r="Q126" s="161"/>
+      <c r="R126" s="159"/>
+      <c r="S126" s="159"/>
+      <c r="T126" s="160"/>
+      <c r="U126" s="161"/>
+      <c r="V126" s="159"/>
+      <c r="W126" s="159"/>
+      <c r="X126" s="160"/>
+    </row>
+    <row r="127" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C127" s="167"/>
+      <c r="D127" s="176"/>
+      <c r="E127" s="159"/>
+      <c r="F127" s="159"/>
+      <c r="G127" s="159"/>
+      <c r="H127" s="160"/>
+      <c r="I127" s="161"/>
+      <c r="J127" s="159"/>
+      <c r="K127" s="159"/>
+      <c r="L127" s="160"/>
+      <c r="M127" s="161"/>
+      <c r="N127" s="159"/>
+      <c r="O127" s="159"/>
+      <c r="P127" s="160"/>
+      <c r="Q127" s="161"/>
+      <c r="R127" s="159"/>
+      <c r="S127" s="159"/>
+      <c r="T127" s="160"/>
+      <c r="U127" s="161"/>
+      <c r="V127" s="159"/>
+      <c r="W127" s="159"/>
+      <c r="X127" s="160"/>
+    </row>
+    <row r="128" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C128" s="167"/>
+      <c r="D128" s="176"/>
+      <c r="E128" s="159"/>
+      <c r="F128" s="159"/>
+      <c r="G128" s="159"/>
+      <c r="H128" s="160"/>
+      <c r="I128" s="161"/>
+      <c r="J128" s="159"/>
+      <c r="K128" s="159"/>
+      <c r="L128" s="160"/>
+      <c r="M128" s="161"/>
+      <c r="N128" s="159"/>
+      <c r="O128" s="159"/>
+      <c r="P128" s="160"/>
+      <c r="Q128" s="161"/>
+      <c r="R128" s="159"/>
+      <c r="S128" s="159"/>
+      <c r="T128" s="160"/>
+      <c r="U128" s="161"/>
+      <c r="V128" s="159"/>
+      <c r="W128" s="159"/>
+      <c r="X128" s="160"/>
+    </row>
+    <row r="129" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C129" s="167"/>
+      <c r="D129" s="176"/>
+      <c r="E129" s="159"/>
+      <c r="F129" s="159"/>
+      <c r="G129" s="159"/>
+      <c r="H129" s="160"/>
+      <c r="I129" s="161"/>
+      <c r="J129" s="159"/>
+      <c r="K129" s="159"/>
+      <c r="L129" s="160"/>
+      <c r="M129" s="161"/>
+      <c r="N129" s="159"/>
+      <c r="O129" s="159"/>
+      <c r="P129" s="160"/>
+      <c r="Q129" s="161"/>
+      <c r="R129" s="159"/>
+      <c r="S129" s="159"/>
+      <c r="T129" s="160"/>
+      <c r="U129" s="161"/>
+      <c r="V129" s="159"/>
+      <c r="W129" s="159"/>
+      <c r="X129" s="160"/>
+    </row>
+    <row r="130" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C130" s="167"/>
+      <c r="D130" s="176"/>
+      <c r="E130" s="159"/>
+      <c r="F130" s="159"/>
+      <c r="G130" s="159"/>
+      <c r="H130" s="160"/>
+      <c r="I130" s="161"/>
+      <c r="J130" s="159"/>
+      <c r="K130" s="159"/>
+      <c r="L130" s="160"/>
+      <c r="M130" s="161"/>
+      <c r="N130" s="159"/>
+      <c r="O130" s="159"/>
+      <c r="P130" s="160"/>
+      <c r="Q130" s="161"/>
+      <c r="R130" s="159"/>
+      <c r="S130" s="159"/>
+      <c r="T130" s="160"/>
+      <c r="U130" s="161"/>
+      <c r="V130" s="159"/>
+      <c r="W130" s="159"/>
+      <c r="X130" s="160"/>
+    </row>
+    <row r="131" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C131" s="167"/>
+      <c r="D131" s="176"/>
+      <c r="E131" s="159"/>
+      <c r="F131" s="159"/>
+      <c r="G131" s="159"/>
+      <c r="H131" s="160"/>
+      <c r="I131" s="161"/>
+      <c r="J131" s="159"/>
+      <c r="K131" s="159"/>
+      <c r="L131" s="160"/>
+      <c r="M131" s="161"/>
+      <c r="N131" s="159"/>
+      <c r="O131" s="159"/>
+      <c r="P131" s="160"/>
+      <c r="Q131" s="161"/>
+      <c r="R131" s="159"/>
+      <c r="S131" s="159"/>
+      <c r="T131" s="160"/>
+      <c r="U131" s="161"/>
+      <c r="V131" s="159"/>
+      <c r="W131" s="159"/>
+      <c r="X131" s="160"/>
+    </row>
+    <row r="132" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C132" s="167"/>
+      <c r="D132" s="176"/>
+      <c r="E132" s="159"/>
+      <c r="F132" s="159"/>
+      <c r="G132" s="159"/>
+      <c r="H132" s="160"/>
+      <c r="I132" s="161"/>
+      <c r="J132" s="159"/>
+      <c r="K132" s="159"/>
+      <c r="L132" s="160"/>
+      <c r="M132" s="161"/>
+      <c r="N132" s="159"/>
+      <c r="O132" s="159"/>
+      <c r="P132" s="160"/>
+      <c r="Q132" s="161"/>
+      <c r="R132" s="159"/>
+      <c r="S132" s="159"/>
+      <c r="T132" s="160"/>
+      <c r="U132" s="161"/>
+      <c r="V132" s="159"/>
+      <c r="W132" s="159"/>
+      <c r="X132" s="160"/>
+    </row>
+    <row r="133" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C133" s="167"/>
+      <c r="D133" s="176"/>
+      <c r="E133" s="159"/>
+      <c r="F133" s="159"/>
+      <c r="G133" s="159"/>
+      <c r="H133" s="160"/>
+      <c r="I133" s="161"/>
+      <c r="J133" s="159"/>
+      <c r="K133" s="159"/>
+      <c r="L133" s="160"/>
+      <c r="M133" s="161"/>
+      <c r="N133" s="159"/>
+      <c r="O133" s="159"/>
+      <c r="P133" s="160"/>
+      <c r="Q133" s="161"/>
+      <c r="R133" s="159"/>
+      <c r="S133" s="159"/>
+      <c r="T133" s="160"/>
+      <c r="U133" s="161"/>
+      <c r="V133" s="159"/>
+      <c r="W133" s="159"/>
+      <c r="X133" s="160"/>
+    </row>
+    <row r="134" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C134" s="167"/>
+      <c r="D134" s="176"/>
+      <c r="E134" s="159"/>
+      <c r="F134" s="159"/>
+      <c r="G134" s="159"/>
+      <c r="H134" s="160"/>
+      <c r="I134" s="161"/>
+      <c r="J134" s="159"/>
+      <c r="K134" s="159"/>
+      <c r="L134" s="160"/>
+      <c r="M134" s="161"/>
+      <c r="N134" s="159"/>
+      <c r="O134" s="159"/>
+      <c r="P134" s="160"/>
+      <c r="Q134" s="161"/>
+      <c r="R134" s="159"/>
+      <c r="S134" s="159"/>
+      <c r="T134" s="160"/>
+      <c r="U134" s="161"/>
+      <c r="V134" s="159"/>
+      <c r="W134" s="159"/>
+      <c r="X134" s="160"/>
+    </row>
+    <row r="135" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C135" s="167"/>
+      <c r="D135" s="176"/>
+      <c r="E135" s="159"/>
+      <c r="F135" s="159"/>
+      <c r="G135" s="159"/>
+      <c r="H135" s="160"/>
+      <c r="I135" s="161"/>
+      <c r="J135" s="159"/>
+      <c r="K135" s="159"/>
+      <c r="L135" s="160"/>
+      <c r="M135" s="161"/>
+      <c r="N135" s="159"/>
+      <c r="O135" s="159"/>
+      <c r="P135" s="160"/>
+      <c r="Q135" s="161"/>
+      <c r="R135" s="159"/>
+      <c r="S135" s="159"/>
+      <c r="T135" s="160"/>
+      <c r="U135" s="161"/>
+      <c r="V135" s="159"/>
+      <c r="W135" s="159"/>
+      <c r="X135" s="160"/>
+    </row>
+    <row r="136" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C136" s="167"/>
+      <c r="D136" s="176"/>
+      <c r="E136" s="159"/>
+      <c r="F136" s="159"/>
+      <c r="G136" s="159"/>
+      <c r="H136" s="160"/>
+      <c r="I136" s="161"/>
+      <c r="J136" s="159"/>
+      <c r="K136" s="159"/>
+      <c r="L136" s="160"/>
+      <c r="M136" s="161"/>
+      <c r="N136" s="159"/>
+      <c r="O136" s="159"/>
+      <c r="P136" s="160"/>
+      <c r="Q136" s="161"/>
+      <c r="R136" s="159"/>
+      <c r="S136" s="159"/>
+      <c r="T136" s="160"/>
+      <c r="U136" s="161"/>
+      <c r="V136" s="159"/>
+      <c r="W136" s="159"/>
+      <c r="X136" s="160"/>
+    </row>
+    <row r="137" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C137" s="167"/>
+      <c r="D137" s="176"/>
+      <c r="E137" s="159"/>
+      <c r="F137" s="159"/>
+      <c r="G137" s="159"/>
+      <c r="H137" s="160"/>
+      <c r="I137" s="161"/>
+      <c r="J137" s="159"/>
+      <c r="K137" s="159"/>
+      <c r="L137" s="160"/>
+      <c r="M137" s="161"/>
+      <c r="N137" s="159"/>
+      <c r="O137" s="159"/>
+      <c r="P137" s="160"/>
+      <c r="Q137" s="161"/>
+      <c r="R137" s="159"/>
+      <c r="S137" s="159"/>
+      <c r="T137" s="160"/>
+      <c r="U137" s="161"/>
+      <c r="V137" s="159"/>
+      <c r="W137" s="159"/>
+      <c r="X137" s="160"/>
+    </row>
+    <row r="138" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C138" s="167"/>
+      <c r="D138" s="176"/>
+      <c r="E138" s="159"/>
+      <c r="F138" s="159"/>
+      <c r="G138" s="159"/>
+      <c r="H138" s="160"/>
+      <c r="I138" s="161"/>
+      <c r="J138" s="159"/>
+      <c r="K138" s="159"/>
+      <c r="L138" s="160"/>
+      <c r="M138" s="161"/>
+      <c r="N138" s="159"/>
+      <c r="O138" s="159"/>
+      <c r="P138" s="160"/>
+      <c r="Q138" s="161"/>
+      <c r="R138" s="159"/>
+      <c r="S138" s="159"/>
+      <c r="T138" s="160"/>
+      <c r="U138" s="161"/>
+      <c r="V138" s="159"/>
+      <c r="W138" s="159"/>
+      <c r="X138" s="160"/>
+    </row>
+    <row r="139" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C139" s="167"/>
+      <c r="D139" s="176"/>
+      <c r="E139" s="159"/>
+      <c r="F139" s="159"/>
+      <c r="G139" s="159"/>
+      <c r="H139" s="160"/>
+      <c r="I139" s="161"/>
+      <c r="J139" s="159"/>
+      <c r="K139" s="159"/>
+      <c r="L139" s="160"/>
+      <c r="M139" s="161"/>
+      <c r="N139" s="159"/>
+      <c r="O139" s="159"/>
+      <c r="P139" s="160"/>
+      <c r="Q139" s="161"/>
+      <c r="R139" s="159"/>
+      <c r="S139" s="159"/>
+      <c r="T139" s="160"/>
+      <c r="U139" s="161"/>
+      <c r="V139" s="159"/>
+      <c r="W139" s="159"/>
+      <c r="X139" s="160"/>
+    </row>
+    <row r="140" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C140" s="167"/>
+      <c r="D140" s="176"/>
+      <c r="E140" s="159"/>
+      <c r="F140" s="159"/>
+      <c r="G140" s="159"/>
+      <c r="H140" s="160"/>
+      <c r="I140" s="161"/>
+      <c r="J140" s="159"/>
+      <c r="K140" s="159"/>
+      <c r="L140" s="160"/>
+      <c r="M140" s="161"/>
+      <c r="N140" s="159"/>
+      <c r="O140" s="159"/>
+      <c r="P140" s="160"/>
+      <c r="Q140" s="161"/>
+      <c r="R140" s="159"/>
+      <c r="S140" s="159"/>
+      <c r="T140" s="160"/>
+      <c r="U140" s="161"/>
+      <c r="V140" s="159"/>
+      <c r="W140" s="159"/>
+      <c r="X140" s="160"/>
+    </row>
+    <row r="141" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C141" s="167"/>
+      <c r="D141" s="176"/>
+      <c r="E141" s="159"/>
+      <c r="F141" s="159"/>
+      <c r="G141" s="159"/>
+      <c r="H141" s="160"/>
+      <c r="I141" s="161"/>
+      <c r="J141" s="159"/>
+      <c r="K141" s="159"/>
+      <c r="L141" s="160"/>
+      <c r="M141" s="161"/>
+      <c r="N141" s="159"/>
+      <c r="O141" s="159"/>
+      <c r="P141" s="160"/>
+      <c r="Q141" s="161"/>
+      <c r="R141" s="159"/>
+      <c r="S141" s="159"/>
+      <c r="T141" s="160"/>
+      <c r="U141" s="161"/>
+      <c r="V141" s="159"/>
+      <c r="W141" s="159"/>
+      <c r="X141" s="160"/>
+    </row>
+    <row r="142" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C142" s="167"/>
+      <c r="D142" s="176"/>
+      <c r="E142" s="159"/>
+      <c r="F142" s="159"/>
+      <c r="G142" s="159"/>
+      <c r="H142" s="160"/>
+      <c r="I142" s="161"/>
+      <c r="J142" s="159"/>
+      <c r="K142" s="159"/>
+      <c r="L142" s="160"/>
+      <c r="M142" s="161"/>
+      <c r="N142" s="159"/>
+      <c r="O142" s="159"/>
+      <c r="P142" s="160"/>
+      <c r="Q142" s="161"/>
+      <c r="R142" s="159"/>
+      <c r="S142" s="159"/>
+      <c r="T142" s="160"/>
+      <c r="U142" s="161"/>
+      <c r="V142" s="159"/>
+      <c r="W142" s="159"/>
+      <c r="X142" s="160"/>
+    </row>
+    <row r="143" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C143" s="167"/>
+      <c r="D143" s="176"/>
+      <c r="E143" s="159"/>
+      <c r="F143" s="159"/>
+      <c r="G143" s="159"/>
+      <c r="H143" s="160"/>
+      <c r="I143" s="161"/>
+      <c r="J143" s="159"/>
+      <c r="K143" s="159"/>
+      <c r="L143" s="160"/>
+      <c r="M143" s="161"/>
+      <c r="N143" s="159"/>
+      <c r="O143" s="159"/>
+      <c r="P143" s="160"/>
+      <c r="Q143" s="161"/>
+      <c r="R143" s="159"/>
+      <c r="S143" s="159"/>
+      <c r="T143" s="160"/>
+      <c r="U143" s="161"/>
+      <c r="V143" s="159"/>
+      <c r="W143" s="159"/>
+      <c r="X143" s="160"/>
+    </row>
+    <row r="144" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C144" s="167"/>
+      <c r="D144" s="176"/>
+      <c r="E144" s="159"/>
+      <c r="F144" s="159"/>
+      <c r="G144" s="159"/>
+      <c r="H144" s="160"/>
+      <c r="I144" s="161"/>
+      <c r="J144" s="159"/>
+      <c r="K144" s="159"/>
+      <c r="L144" s="160"/>
+      <c r="M144" s="161"/>
+      <c r="N144" s="159"/>
+      <c r="O144" s="159"/>
+      <c r="P144" s="160"/>
+      <c r="Q144" s="161"/>
+      <c r="R144" s="159"/>
+      <c r="S144" s="159"/>
+      <c r="T144" s="160"/>
+      <c r="U144" s="161"/>
+      <c r="V144" s="159"/>
+      <c r="W144" s="159"/>
+      <c r="X144" s="160"/>
+    </row>
+    <row r="145" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C145" s="167"/>
+      <c r="D145" s="176"/>
+      <c r="E145" s="159"/>
+      <c r="F145" s="159"/>
+      <c r="G145" s="159"/>
+      <c r="H145" s="160"/>
+      <c r="I145" s="161"/>
+      <c r="J145" s="159"/>
+      <c r="K145" s="159"/>
+      <c r="L145" s="160"/>
+      <c r="M145" s="161"/>
+      <c r="N145" s="159"/>
+      <c r="O145" s="159"/>
+      <c r="P145" s="160"/>
+      <c r="Q145" s="161"/>
+      <c r="R145" s="159"/>
+      <c r="S145" s="159"/>
+      <c r="T145" s="160"/>
+      <c r="U145" s="161"/>
+      <c r="V145" s="159"/>
+      <c r="W145" s="159"/>
+      <c r="X145" s="160"/>
+    </row>
+    <row r="146" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C146" s="167"/>
+      <c r="D146" s="176"/>
+      <c r="E146" s="159"/>
+      <c r="F146" s="159"/>
+      <c r="G146" s="159"/>
+      <c r="H146" s="160"/>
+      <c r="I146" s="161"/>
+      <c r="J146" s="159"/>
+      <c r="K146" s="159"/>
+      <c r="L146" s="160"/>
+      <c r="M146" s="161"/>
+      <c r="N146" s="159"/>
+      <c r="O146" s="159"/>
+      <c r="P146" s="160"/>
+      <c r="Q146" s="161"/>
+      <c r="R146" s="159"/>
+      <c r="S146" s="159"/>
+      <c r="T146" s="160"/>
+      <c r="U146" s="161"/>
+      <c r="V146" s="159"/>
+      <c r="W146" s="159"/>
+      <c r="X146" s="160"/>
+    </row>
+    <row r="147" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C147" s="167"/>
+      <c r="D147" s="176"/>
+      <c r="E147" s="159"/>
+      <c r="F147" s="159"/>
+      <c r="G147" s="159"/>
+      <c r="H147" s="160"/>
+      <c r="I147" s="161"/>
+      <c r="J147" s="159"/>
+      <c r="K147" s="159"/>
+      <c r="L147" s="160"/>
+      <c r="M147" s="161"/>
+      <c r="N147" s="159"/>
+      <c r="O147" s="159"/>
+      <c r="P147" s="160"/>
+      <c r="Q147" s="161"/>
+      <c r="R147" s="159"/>
+      <c r="S147" s="159"/>
+      <c r="T147" s="160"/>
+      <c r="U147" s="161"/>
+      <c r="V147" s="159"/>
+      <c r="W147" s="159"/>
+      <c r="X147" s="160"/>
+    </row>
+    <row r="148" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C148" s="167"/>
+      <c r="D148" s="176"/>
+      <c r="E148" s="159"/>
+      <c r="F148" s="159"/>
+      <c r="G148" s="159"/>
+      <c r="H148" s="160"/>
+      <c r="I148" s="161"/>
+      <c r="J148" s="159"/>
+      <c r="K148" s="159"/>
+      <c r="L148" s="160"/>
+      <c r="M148" s="161"/>
+      <c r="N148" s="159"/>
+      <c r="O148" s="159"/>
+      <c r="P148" s="160"/>
+      <c r="Q148" s="161"/>
+      <c r="R148" s="159"/>
+      <c r="S148" s="159"/>
+      <c r="T148" s="160"/>
+      <c r="U148" s="161"/>
+      <c r="V148" s="159"/>
+      <c r="W148" s="159"/>
+      <c r="X148" s="160"/>
+    </row>
+    <row r="149" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C149" s="167"/>
+      <c r="D149" s="176"/>
+      <c r="E149" s="159"/>
+      <c r="F149" s="159"/>
+      <c r="G149" s="159"/>
+      <c r="H149" s="160"/>
+      <c r="I149" s="161"/>
+      <c r="J149" s="159"/>
+      <c r="K149" s="159"/>
+      <c r="L149" s="160"/>
+      <c r="M149" s="161"/>
+      <c r="N149" s="159"/>
+      <c r="O149" s="159"/>
+      <c r="P149" s="160"/>
+      <c r="Q149" s="161"/>
+      <c r="R149" s="159"/>
+      <c r="S149" s="159"/>
+      <c r="T149" s="160"/>
+      <c r="U149" s="161"/>
+      <c r="V149" s="159"/>
+      <c r="W149" s="159"/>
+      <c r="X149" s="160"/>
+    </row>
+    <row r="150" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C150" s="167"/>
+      <c r="D150" s="176"/>
+      <c r="E150" s="159"/>
+      <c r="F150" s="159"/>
+      <c r="G150" s="159"/>
+      <c r="H150" s="160"/>
+      <c r="I150" s="161"/>
+      <c r="J150" s="159"/>
+      <c r="K150" s="159"/>
+      <c r="L150" s="160"/>
+      <c r="M150" s="161"/>
+      <c r="N150" s="159"/>
+      <c r="O150" s="159"/>
+      <c r="P150" s="160"/>
+      <c r="Q150" s="161"/>
+      <c r="R150" s="159"/>
+      <c r="S150" s="159"/>
+      <c r="T150" s="160"/>
+      <c r="U150" s="161"/>
+      <c r="V150" s="159"/>
+      <c r="W150" s="159"/>
+      <c r="X150" s="160"/>
+    </row>
+    <row r="151" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C151" s="167"/>
+      <c r="D151" s="176"/>
+      <c r="E151" s="159"/>
+      <c r="F151" s="159"/>
+      <c r="G151" s="159"/>
+      <c r="H151" s="160"/>
+      <c r="I151" s="161"/>
+      <c r="J151" s="159"/>
+      <c r="K151" s="159"/>
+      <c r="L151" s="160"/>
+      <c r="M151" s="161"/>
+      <c r="N151" s="159"/>
+      <c r="O151" s="159"/>
+      <c r="P151" s="160"/>
+      <c r="Q151" s="161"/>
+      <c r="R151" s="159"/>
+      <c r="S151" s="159"/>
+      <c r="T151" s="160"/>
+      <c r="U151" s="161"/>
+      <c r="V151" s="159"/>
+      <c r="W151" s="159"/>
+      <c r="X151" s="160"/>
+    </row>
+    <row r="152" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C152" s="167"/>
+      <c r="D152" s="176"/>
+      <c r="E152" s="159"/>
+      <c r="F152" s="159"/>
+      <c r="G152" s="159"/>
+      <c r="H152" s="160"/>
+      <c r="I152" s="161"/>
+      <c r="J152" s="159"/>
+      <c r="K152" s="159"/>
+      <c r="L152" s="160"/>
+      <c r="M152" s="161"/>
+      <c r="N152" s="159"/>
+      <c r="O152" s="159"/>
+      <c r="P152" s="160"/>
+      <c r="Q152" s="161"/>
+      <c r="R152" s="159"/>
+      <c r="S152" s="159"/>
+      <c r="T152" s="160"/>
+      <c r="U152" s="161"/>
+      <c r="V152" s="159"/>
+      <c r="W152" s="159"/>
+      <c r="X152" s="160"/>
+    </row>
+    <row r="153" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C153" s="167"/>
+      <c r="D153" s="176"/>
+      <c r="E153" s="159"/>
+      <c r="F153" s="159"/>
+      <c r="G153" s="159"/>
+      <c r="H153" s="160"/>
+      <c r="I153" s="161"/>
+      <c r="J153" s="159"/>
+      <c r="K153" s="159"/>
+      <c r="L153" s="160"/>
+      <c r="M153" s="161"/>
+      <c r="N153" s="159"/>
+      <c r="O153" s="159"/>
+      <c r="P153" s="160"/>
+      <c r="Q153" s="161"/>
+      <c r="R153" s="159"/>
+      <c r="S153" s="159"/>
+      <c r="T153" s="160"/>
+      <c r="U153" s="161"/>
+      <c r="V153" s="159"/>
+      <c r="W153" s="159"/>
+      <c r="X153" s="160"/>
+    </row>
+    <row r="154" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C154" s="167"/>
+      <c r="D154" s="176"/>
+      <c r="E154" s="159"/>
+      <c r="F154" s="159"/>
+      <c r="G154" s="159"/>
+      <c r="H154" s="160"/>
+      <c r="I154" s="161"/>
+      <c r="J154" s="159"/>
+      <c r="K154" s="159"/>
+      <c r="L154" s="160"/>
+      <c r="M154" s="161"/>
+      <c r="N154" s="159"/>
+      <c r="O154" s="159"/>
+      <c r="P154" s="160"/>
+      <c r="Q154" s="161"/>
+      <c r="R154" s="159"/>
+      <c r="S154" s="159"/>
+      <c r="T154" s="160"/>
+      <c r="U154" s="161"/>
+      <c r="V154" s="159"/>
+      <c r="W154" s="159"/>
+      <c r="X154" s="160"/>
+    </row>
+    <row r="155" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C155" s="167"/>
+      <c r="D155" s="176"/>
+      <c r="E155" s="159"/>
+      <c r="F155" s="159"/>
+      <c r="G155" s="159"/>
+      <c r="H155" s="160"/>
+      <c r="I155" s="161"/>
+      <c r="J155" s="159"/>
+      <c r="K155" s="159"/>
+      <c r="L155" s="160"/>
+      <c r="M155" s="161"/>
+      <c r="N155" s="159"/>
+      <c r="O155" s="159"/>
+      <c r="P155" s="160"/>
+      <c r="Q155" s="161"/>
+      <c r="R155" s="159"/>
+      <c r="S155" s="159"/>
+      <c r="T155" s="160"/>
+      <c r="U155" s="161"/>
+      <c r="V155" s="159"/>
+      <c r="W155" s="159"/>
+      <c r="X155" s="160"/>
+    </row>
+    <row r="156" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C156" s="167"/>
+      <c r="D156" s="176"/>
+      <c r="E156" s="159"/>
+      <c r="F156" s="159"/>
+      <c r="G156" s="159"/>
+      <c r="H156" s="160"/>
+      <c r="I156" s="161"/>
+      <c r="J156" s="159"/>
+      <c r="K156" s="159"/>
+      <c r="L156" s="160"/>
+      <c r="M156" s="161"/>
+      <c r="N156" s="159"/>
+      <c r="O156" s="159"/>
+      <c r="P156" s="160"/>
+      <c r="Q156" s="161"/>
+      <c r="R156" s="159"/>
+      <c r="S156" s="159"/>
+      <c r="T156" s="160"/>
+      <c r="U156" s="161"/>
+      <c r="V156" s="159"/>
+      <c r="W156" s="159"/>
+      <c r="X156" s="160"/>
+    </row>
+    <row r="157" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C157" s="167"/>
+      <c r="D157" s="176"/>
+      <c r="E157" s="159"/>
+      <c r="F157" s="159"/>
+      <c r="G157" s="159"/>
+      <c r="H157" s="160"/>
+      <c r="I157" s="161"/>
+      <c r="J157" s="159"/>
+      <c r="K157" s="159"/>
+      <c r="L157" s="160"/>
+      <c r="M157" s="161"/>
+      <c r="N157" s="159"/>
+      <c r="O157" s="159"/>
+      <c r="P157" s="160"/>
+      <c r="Q157" s="161"/>
+      <c r="R157" s="159"/>
+      <c r="S157" s="159"/>
+      <c r="T157" s="160"/>
+      <c r="U157" s="161"/>
+      <c r="V157" s="159"/>
+      <c r="W157" s="159"/>
+      <c r="X157" s="160"/>
+    </row>
+    <row r="158" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C158" s="167"/>
+      <c r="D158" s="176"/>
+      <c r="E158" s="159"/>
+      <c r="F158" s="159"/>
+      <c r="G158" s="159"/>
+      <c r="H158" s="160"/>
+      <c r="I158" s="161"/>
+      <c r="J158" s="159"/>
+      <c r="K158" s="159"/>
+      <c r="L158" s="160"/>
+      <c r="M158" s="161"/>
+      <c r="N158" s="159"/>
+      <c r="O158" s="159"/>
+      <c r="P158" s="160"/>
+      <c r="Q158" s="161"/>
+      <c r="R158" s="159"/>
+      <c r="S158" s="159"/>
+      <c r="T158" s="160"/>
+      <c r="U158" s="161"/>
+      <c r="V158" s="159"/>
+      <c r="W158" s="159"/>
+      <c r="X158" s="160"/>
+    </row>
+    <row r="159" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C159" s="167"/>
+      <c r="D159" s="176"/>
+      <c r="E159" s="159"/>
+      <c r="F159" s="159"/>
+      <c r="G159" s="159"/>
+      <c r="H159" s="160"/>
+      <c r="I159" s="161"/>
+      <c r="J159" s="159"/>
+      <c r="K159" s="159"/>
+      <c r="L159" s="160"/>
+      <c r="M159" s="161"/>
+      <c r="N159" s="159"/>
+      <c r="O159" s="159"/>
+      <c r="P159" s="160"/>
+      <c r="Q159" s="161"/>
+      <c r="R159" s="159"/>
+      <c r="S159" s="159"/>
+      <c r="T159" s="160"/>
+      <c r="U159" s="161"/>
+      <c r="V159" s="159"/>
+      <c r="W159" s="159"/>
+      <c r="X159" s="160"/>
+    </row>
+    <row r="160" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C160" s="167"/>
+      <c r="D160" s="176"/>
+      <c r="E160" s="159"/>
+      <c r="F160" s="159"/>
+      <c r="G160" s="159"/>
+      <c r="H160" s="160"/>
+      <c r="I160" s="161"/>
+      <c r="J160" s="159"/>
+      <c r="K160" s="159"/>
+      <c r="L160" s="160"/>
+      <c r="M160" s="161"/>
+      <c r="N160" s="159"/>
+      <c r="O160" s="159"/>
+      <c r="P160" s="160"/>
+      <c r="Q160" s="161"/>
+      <c r="R160" s="159"/>
+      <c r="S160" s="159"/>
+      <c r="T160" s="160"/>
+      <c r="U160" s="161"/>
+      <c r="V160" s="159"/>
+      <c r="W160" s="159"/>
+      <c r="X160" s="160"/>
+    </row>
+    <row r="161" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C161" s="167"/>
+      <c r="D161" s="176"/>
+      <c r="E161" s="159"/>
+      <c r="F161" s="159"/>
+      <c r="G161" s="159"/>
+      <c r="H161" s="160"/>
+      <c r="I161" s="161"/>
+      <c r="J161" s="159"/>
+      <c r="K161" s="159"/>
+      <c r="L161" s="160"/>
+      <c r="M161" s="161"/>
+      <c r="N161" s="159"/>
+      <c r="O161" s="159"/>
+      <c r="P161" s="160"/>
+      <c r="Q161" s="161"/>
+      <c r="R161" s="159"/>
+      <c r="S161" s="159"/>
+      <c r="T161" s="160"/>
+      <c r="U161" s="161"/>
+      <c r="V161" s="159"/>
+      <c r="W161" s="159"/>
+      <c r="X161" s="160"/>
+    </row>
+    <row r="162" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C162" s="167"/>
+      <c r="D162" s="176"/>
+      <c r="E162" s="159"/>
+      <c r="F162" s="159"/>
+      <c r="G162" s="159"/>
+      <c r="H162" s="160"/>
+      <c r="I162" s="161"/>
+      <c r="J162" s="159"/>
+      <c r="K162" s="159"/>
+      <c r="L162" s="160"/>
+      <c r="M162" s="161"/>
+      <c r="N162" s="159"/>
+      <c r="O162" s="159"/>
+      <c r="P162" s="160"/>
+      <c r="Q162" s="161"/>
+      <c r="R162" s="159"/>
+      <c r="S162" s="159"/>
+      <c r="T162" s="160"/>
+      <c r="U162" s="161"/>
+      <c r="V162" s="159"/>
+      <c r="W162" s="159"/>
+      <c r="X162" s="160"/>
+    </row>
+    <row r="163" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C163" s="167"/>
+      <c r="D163" s="176"/>
+      <c r="E163" s="159"/>
+      <c r="F163" s="159"/>
+      <c r="G163" s="159"/>
+      <c r="H163" s="160"/>
+      <c r="I163" s="161"/>
+      <c r="J163" s="159"/>
+      <c r="K163" s="159"/>
+      <c r="L163" s="160"/>
+      <c r="M163" s="161"/>
+      <c r="N163" s="159"/>
+      <c r="O163" s="159"/>
+      <c r="P163" s="160"/>
+      <c r="Q163" s="161"/>
+      <c r="R163" s="159"/>
+      <c r="S163" s="159"/>
+      <c r="T163" s="160"/>
+      <c r="U163" s="161"/>
+      <c r="V163" s="159"/>
+      <c r="W163" s="159"/>
+      <c r="X163" s="160"/>
+    </row>
+    <row r="164" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C164" s="167"/>
+      <c r="D164" s="176"/>
+      <c r="E164" s="159"/>
+      <c r="F164" s="159"/>
+      <c r="G164" s="159"/>
+      <c r="H164" s="160"/>
+      <c r="I164" s="161"/>
+      <c r="J164" s="159"/>
+      <c r="K164" s="159"/>
+      <c r="L164" s="160"/>
+      <c r="M164" s="161"/>
+      <c r="N164" s="159"/>
+      <c r="O164" s="159"/>
+      <c r="P164" s="160"/>
+      <c r="Q164" s="161"/>
+      <c r="R164" s="159"/>
+      <c r="S164" s="159"/>
+      <c r="T164" s="160"/>
+      <c r="U164" s="161"/>
+      <c r="V164" s="159"/>
+      <c r="W164" s="159"/>
+      <c r="X164" s="160"/>
+    </row>
+    <row r="165" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C165" s="167"/>
+      <c r="D165" s="176"/>
+      <c r="E165" s="159"/>
+      <c r="F165" s="159"/>
+      <c r="G165" s="159"/>
+      <c r="H165" s="160"/>
+      <c r="I165" s="161"/>
+      <c r="J165" s="159"/>
+      <c r="K165" s="159"/>
+      <c r="L165" s="160"/>
+      <c r="M165" s="161"/>
+      <c r="N165" s="159"/>
+      <c r="O165" s="159"/>
+      <c r="P165" s="160"/>
+      <c r="Q165" s="161"/>
+      <c r="R165" s="159"/>
+      <c r="S165" s="159"/>
+      <c r="T165" s="160"/>
+      <c r="U165" s="161"/>
+      <c r="V165" s="159"/>
+      <c r="W165" s="159"/>
+      <c r="X165" s="160"/>
+    </row>
+    <row r="166" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C166" s="167"/>
+      <c r="D166" s="176"/>
+      <c r="E166" s="159"/>
+      <c r="F166" s="159"/>
+      <c r="G166" s="159"/>
+      <c r="H166" s="160"/>
+      <c r="I166" s="161"/>
+      <c r="J166" s="159"/>
+      <c r="K166" s="159"/>
+      <c r="L166" s="160"/>
+      <c r="M166" s="161"/>
+      <c r="N166" s="159"/>
+      <c r="O166" s="159"/>
+      <c r="P166" s="160"/>
+      <c r="Q166" s="161"/>
+      <c r="R166" s="159"/>
+      <c r="S166" s="159"/>
+      <c r="T166" s="160"/>
+      <c r="U166" s="161"/>
+      <c r="V166" s="159"/>
+      <c r="W166" s="159"/>
+      <c r="X166" s="160"/>
+    </row>
+    <row r="167" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C167" s="167"/>
+      <c r="D167" s="176"/>
+      <c r="E167" s="159"/>
+      <c r="F167" s="159"/>
+      <c r="G167" s="159"/>
+      <c r="H167" s="160"/>
+      <c r="I167" s="161"/>
+      <c r="J167" s="159"/>
+      <c r="K167" s="159"/>
+      <c r="L167" s="160"/>
+      <c r="M167" s="161"/>
+      <c r="N167" s="159"/>
+      <c r="O167" s="159"/>
+      <c r="P167" s="160"/>
+      <c r="Q167" s="161"/>
+      <c r="R167" s="159"/>
+      <c r="S167" s="159"/>
+      <c r="T167" s="160"/>
+      <c r="U167" s="161"/>
+      <c r="V167" s="159"/>
+      <c r="W167" s="159"/>
+      <c r="X167" s="160"/>
+    </row>
+    <row r="168" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C168" s="167"/>
+      <c r="D168" s="176"/>
+      <c r="E168" s="159"/>
+      <c r="F168" s="159"/>
+      <c r="G168" s="159"/>
+      <c r="H168" s="160"/>
+      <c r="I168" s="161"/>
+      <c r="J168" s="159"/>
+      <c r="K168" s="159"/>
+      <c r="L168" s="160"/>
+      <c r="M168" s="161"/>
+      <c r="N168" s="159"/>
+      <c r="O168" s="159"/>
+      <c r="P168" s="160"/>
+      <c r="Q168" s="161"/>
+      <c r="R168" s="159"/>
+      <c r="S168" s="159"/>
+      <c r="T168" s="160"/>
+      <c r="U168" s="161"/>
+      <c r="V168" s="159"/>
+      <c r="W168" s="159"/>
+      <c r="X168" s="160"/>
+    </row>
+    <row r="169" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C169" s="167"/>
+      <c r="D169" s="176"/>
+      <c r="E169" s="159"/>
+      <c r="F169" s="159"/>
+      <c r="G169" s="159"/>
+      <c r="H169" s="160"/>
+      <c r="I169" s="161"/>
+      <c r="J169" s="159"/>
+      <c r="K169" s="159"/>
+      <c r="L169" s="160"/>
+      <c r="M169" s="161"/>
+      <c r="N169" s="159"/>
+      <c r="O169" s="159"/>
+      <c r="P169" s="160"/>
+      <c r="Q169" s="161"/>
+      <c r="R169" s="159"/>
+      <c r="S169" s="159"/>
+      <c r="T169" s="160"/>
+      <c r="U169" s="161"/>
+      <c r="V169" s="159"/>
+      <c r="W169" s="159"/>
+      <c r="X169" s="160"/>
+    </row>
+    <row r="170" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C170" s="167"/>
+      <c r="D170" s="176"/>
+      <c r="E170" s="159"/>
+      <c r="F170" s="159"/>
+      <c r="G170" s="159"/>
+      <c r="H170" s="160"/>
+      <c r="I170" s="161"/>
+      <c r="J170" s="159"/>
+      <c r="K170" s="159"/>
+      <c r="L170" s="160"/>
+      <c r="M170" s="161"/>
+      <c r="N170" s="159"/>
+      <c r="O170" s="159"/>
+      <c r="P170" s="160"/>
+      <c r="Q170" s="161"/>
+      <c r="R170" s="159"/>
+      <c r="S170" s="159"/>
+      <c r="T170" s="160"/>
+      <c r="U170" s="161"/>
+      <c r="V170" s="159"/>
+      <c r="W170" s="159"/>
+      <c r="X170" s="160"/>
+    </row>
+    <row r="171" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C171" s="167"/>
+      <c r="D171" s="176"/>
+      <c r="E171" s="159"/>
+      <c r="F171" s="159"/>
+      <c r="G171" s="159"/>
+      <c r="H171" s="160"/>
+      <c r="I171" s="161"/>
+      <c r="J171" s="159"/>
+      <c r="K171" s="159"/>
+      <c r="L171" s="160"/>
+      <c r="M171" s="161"/>
+      <c r="N171" s="159"/>
+      <c r="O171" s="159"/>
+      <c r="P171" s="160"/>
+      <c r="Q171" s="161"/>
+      <c r="R171" s="159"/>
+      <c r="S171" s="159"/>
+      <c r="T171" s="160"/>
+      <c r="U171" s="161"/>
+      <c r="V171" s="159"/>
+      <c r="W171" s="159"/>
+      <c r="X171" s="160"/>
+    </row>
+    <row r="172" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C172" s="167"/>
+      <c r="D172" s="176"/>
+      <c r="E172" s="159"/>
+      <c r="F172" s="159"/>
+      <c r="G172" s="159"/>
+      <c r="H172" s="160"/>
+      <c r="I172" s="161"/>
+      <c r="J172" s="159"/>
+      <c r="K172" s="159"/>
+      <c r="L172" s="160"/>
+      <c r="M172" s="161"/>
+      <c r="N172" s="159"/>
+      <c r="O172" s="159"/>
+      <c r="P172" s="160"/>
+      <c r="Q172" s="161"/>
+      <c r="R172" s="159"/>
+      <c r="S172" s="159"/>
+      <c r="T172" s="160"/>
+      <c r="U172" s="161"/>
+      <c r="V172" s="159"/>
+      <c r="W172" s="159"/>
+      <c r="X172" s="160"/>
+    </row>
+    <row r="173" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C173" s="167"/>
+      <c r="D173" s="176"/>
+      <c r="E173" s="159"/>
+      <c r="F173" s="159"/>
+      <c r="G173" s="159"/>
+      <c r="H173" s="160"/>
+      <c r="I173" s="161"/>
+      <c r="J173" s="159"/>
+      <c r="K173" s="159"/>
+      <c r="L173" s="160"/>
+      <c r="M173" s="161"/>
+      <c r="N173" s="159"/>
+      <c r="O173" s="159"/>
+      <c r="P173" s="160"/>
+      <c r="Q173" s="161"/>
+      <c r="R173" s="159"/>
+      <c r="S173" s="159"/>
+      <c r="T173" s="160"/>
+      <c r="U173" s="161"/>
+      <c r="V173" s="159"/>
+      <c r="W173" s="159"/>
+      <c r="X173" s="160"/>
+    </row>
+    <row r="174" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C174" s="167"/>
+      <c r="D174" s="176"/>
+      <c r="E174" s="159"/>
+      <c r="F174" s="159"/>
+      <c r="G174" s="159"/>
+      <c r="H174" s="160"/>
+      <c r="I174" s="161"/>
+      <c r="J174" s="159"/>
+      <c r="K174" s="159"/>
+      <c r="L174" s="160"/>
+      <c r="M174" s="161"/>
+      <c r="N174" s="159"/>
+      <c r="O174" s="159"/>
+      <c r="P174" s="160"/>
+      <c r="Q174" s="161"/>
+      <c r="R174" s="159"/>
+      <c r="S174" s="159"/>
+      <c r="T174" s="160"/>
+      <c r="U174" s="161"/>
+      <c r="V174" s="159"/>
+      <c r="W174" s="159"/>
+      <c r="X174" s="160"/>
+    </row>
+    <row r="175" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C175" s="167"/>
+      <c r="D175" s="176"/>
+      <c r="E175" s="159"/>
+      <c r="F175" s="159"/>
+      <c r="G175" s="159"/>
+      <c r="H175" s="160"/>
+      <c r="I175" s="161"/>
+      <c r="J175" s="159"/>
+      <c r="K175" s="159"/>
+      <c r="L175" s="160"/>
+      <c r="M175" s="161"/>
+      <c r="N175" s="159"/>
+      <c r="O175" s="159"/>
+      <c r="P175" s="160"/>
+      <c r="Q175" s="161"/>
+      <c r="R175" s="159"/>
+      <c r="S175" s="159"/>
+      <c r="T175" s="160"/>
+      <c r="U175" s="161"/>
+      <c r="V175" s="159"/>
+      <c r="W175" s="159"/>
+      <c r="X175" s="160"/>
+    </row>
+    <row r="176" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C176" s="167"/>
+      <c r="D176" s="176"/>
+      <c r="E176" s="159"/>
+      <c r="F176" s="159"/>
+      <c r="G176" s="159"/>
+      <c r="H176" s="160"/>
+      <c r="I176" s="161"/>
+      <c r="J176" s="159"/>
+      <c r="K176" s="159"/>
+      <c r="L176" s="160"/>
+      <c r="M176" s="161"/>
+      <c r="N176" s="159"/>
+      <c r="O176" s="159"/>
+      <c r="P176" s="160"/>
+      <c r="Q176" s="161"/>
+      <c r="R176" s="159"/>
+      <c r="S176" s="159"/>
+      <c r="T176" s="160"/>
+      <c r="U176" s="161"/>
+      <c r="V176" s="159"/>
+      <c r="W176" s="159"/>
+      <c r="X176" s="160"/>
+    </row>
+    <row r="177" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C177" s="167"/>
+      <c r="D177" s="176"/>
+      <c r="E177" s="159"/>
+      <c r="F177" s="159"/>
+      <c r="G177" s="159"/>
+      <c r="H177" s="160"/>
+      <c r="I177" s="161"/>
+      <c r="J177" s="159"/>
+      <c r="K177" s="159"/>
+      <c r="L177" s="160"/>
+      <c r="M177" s="161"/>
+      <c r="N177" s="159"/>
+      <c r="O177" s="159"/>
+      <c r="P177" s="160"/>
+      <c r="Q177" s="161"/>
+      <c r="R177" s="159"/>
+      <c r="S177" s="159"/>
+      <c r="T177" s="160"/>
+      <c r="U177" s="161"/>
+      <c r="V177" s="159"/>
+      <c r="W177" s="159"/>
+      <c r="X177" s="160"/>
+    </row>
+    <row r="178" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C178" s="167"/>
+      <c r="D178" s="176"/>
+      <c r="E178" s="159"/>
+      <c r="F178" s="159"/>
+      <c r="G178" s="159"/>
+      <c r="H178" s="160"/>
+      <c r="I178" s="161"/>
+      <c r="J178" s="159"/>
+      <c r="K178" s="159"/>
+      <c r="L178" s="160"/>
+      <c r="M178" s="161"/>
+      <c r="N178" s="159"/>
+      <c r="O178" s="159"/>
+      <c r="P178" s="160"/>
+      <c r="Q178" s="161"/>
+      <c r="R178" s="159"/>
+      <c r="S178" s="159"/>
+      <c r="T178" s="160"/>
+      <c r="U178" s="161"/>
+      <c r="V178" s="159"/>
+      <c r="W178" s="159"/>
+      <c r="X178" s="160"/>
+    </row>
+    <row r="179" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C179" s="167"/>
+      <c r="D179" s="176"/>
+      <c r="E179" s="159"/>
+      <c r="F179" s="159"/>
+      <c r="G179" s="159"/>
+      <c r="H179" s="160"/>
+      <c r="I179" s="161"/>
+      <c r="J179" s="159"/>
+      <c r="K179" s="159"/>
+      <c r="L179" s="160"/>
+      <c r="M179" s="161"/>
+      <c r="N179" s="159"/>
+      <c r="O179" s="159"/>
+      <c r="P179" s="160"/>
+      <c r="Q179" s="161"/>
+      <c r="R179" s="159"/>
+      <c r="S179" s="159"/>
+      <c r="T179" s="160"/>
+      <c r="U179" s="161"/>
+      <c r="V179" s="159"/>
+      <c r="W179" s="159"/>
+      <c r="X179" s="160"/>
+    </row>
+    <row r="180" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C180" s="167"/>
+      <c r="D180" s="176"/>
+      <c r="E180" s="159"/>
+      <c r="F180" s="159"/>
+      <c r="G180" s="159"/>
+      <c r="H180" s="160"/>
+      <c r="I180" s="161"/>
+      <c r="J180" s="159"/>
+      <c r="K180" s="159"/>
+      <c r="L180" s="160"/>
+      <c r="M180" s="161"/>
+      <c r="N180" s="159"/>
+      <c r="O180" s="159"/>
+      <c r="P180" s="160"/>
+      <c r="Q180" s="161"/>
+      <c r="R180" s="159"/>
+      <c r="S180" s="159"/>
+      <c r="T180" s="160"/>
+      <c r="U180" s="161"/>
+      <c r="V180" s="159"/>
+      <c r="W180" s="159"/>
+      <c r="X180" s="160"/>
+    </row>
+    <row r="181" spans="3:24" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C181" s="167"/>
+      <c r="D181" s="176"/>
+      <c r="E181" s="159"/>
+      <c r="F181" s="159"/>
+      <c r="G181" s="159"/>
+      <c r="H181" s="160"/>
+      <c r="I181" s="161"/>
+      <c r="J181" s="159"/>
+      <c r="K181" s="159"/>
+      <c r="L181" s="160"/>
+      <c r="M181" s="161"/>
+      <c r="N181" s="159"/>
+      <c r="O181" s="159"/>
+      <c r="P181" s="160"/>
+      <c r="Q181" s="161"/>
+      <c r="R181" s="159"/>
+      <c r="S181" s="159"/>
+      <c r="T181" s="160"/>
+      <c r="U181" s="161"/>
+      <c r="V181" s="159"/>
+      <c r="W181" s="159"/>
+      <c r="X181" s="160"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="Y3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AJ3"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="U3:X3"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C3DEEDC-C3F5-43B4-B6AC-EF17B8177771}">
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N56" sqref="N56"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M62" sqref="M62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16467,7 +21518,7 @@
         <v>1022</v>
       </c>
       <c r="D2">
-        <f>(B2/C2)*100</f>
+        <f t="shared" ref="D2:D33" si="0">(B2/C2)*100</f>
         <v>59.197651663405097</v>
       </c>
     </row>
@@ -16482,7 +21533,7 @@
         <v>986</v>
       </c>
       <c r="D3">
-        <f>(B3/C3)*100</f>
+        <f t="shared" si="0"/>
         <v>60.851926977687633</v>
       </c>
     </row>
@@ -16497,7 +21548,7 @@
         <v>1041</v>
       </c>
       <c r="D4">
-        <f>(B4/C4)*100</f>
+        <f t="shared" si="0"/>
         <v>57.636887608069166</v>
       </c>
       <c r="I4" t="s">
@@ -16524,7 +21575,7 @@
         <v>1009</v>
       </c>
       <c r="D5">
-        <f>(B5/C5)*100</f>
+        <f t="shared" si="0"/>
         <v>59.464816650148663</v>
       </c>
       <c r="I5">
@@ -16538,7 +21589,7 @@
         <f>F11</f>
         <v>56.333106105797604</v>
       </c>
-      <c r="L5" s="125">
+      <c r="L5" s="94">
         <f>'Smart AI'!E2</f>
         <v>59.605911330049267</v>
       </c>
@@ -16554,7 +21605,7 @@
         <v>989</v>
       </c>
       <c r="D6">
-        <f>(B6/C6)*100</f>
+        <f t="shared" si="0"/>
         <v>60.667340748230536</v>
       </c>
       <c r="I6">
@@ -16568,7 +21619,7 @@
         <f>F21</f>
         <v>54.153415877604672</v>
       </c>
-      <c r="L6" s="125">
+      <c r="L6" s="94">
         <f>'Smart AI'!E3</f>
         <v>59.900990099009896</v>
       </c>
@@ -16584,7 +21635,7 @@
         <v>1019</v>
       </c>
       <c r="D7">
-        <f>(B7/C7)*100</f>
+        <f t="shared" si="0"/>
         <v>58.881256133464177</v>
       </c>
       <c r="I7">
@@ -16598,7 +21649,7 @@
         <f>F31</f>
         <v>52.015375513297784</v>
       </c>
-      <c r="L7" s="125">
+      <c r="L7" s="94">
         <f>'Smart AI'!E4</f>
         <v>60.019841269841265</v>
       </c>
@@ -16614,7 +21665,7 @@
         <v>1015</v>
       </c>
       <c r="D8">
-        <f>(B8/C8)*100</f>
+        <f t="shared" si="0"/>
         <v>59.11330049261084</v>
       </c>
       <c r="I8">
@@ -16628,7 +21679,7 @@
         <f>F41</f>
         <v>59.775669187561014</v>
       </c>
-      <c r="L8" s="125">
+      <c r="L8" s="94">
         <f>'Smart AI'!E5</f>
         <v>60.5</v>
       </c>
@@ -16644,7 +21695,7 @@
         <v>1002</v>
       </c>
       <c r="D9">
-        <f>(B9/C9)*100</f>
+        <f t="shared" si="0"/>
         <v>59.880239520958078</v>
       </c>
       <c r="I9">
@@ -16658,7 +21709,7 @@
         <f>F51</f>
         <v>60.823690635365722</v>
       </c>
-      <c r="L9" s="125">
+      <c r="L9" s="94">
         <f>'Smart AI'!E6</f>
         <v>60.62124248496994</v>
       </c>
@@ -16674,7 +21725,7 @@
         <v>2240</v>
       </c>
       <c r="D10">
-        <f>(B10/C10)*100</f>
+        <f t="shared" si="0"/>
         <v>26.785714285714285</v>
       </c>
       <c r="I10">
@@ -16688,7 +21739,7 @@
         <f>F61</f>
         <v>60.740183020988695</v>
       </c>
-      <c r="L10" s="125">
+      <c r="L10" s="94">
         <f>'Smart AI'!E7</f>
         <v>60.636182902584487</v>
       </c>
@@ -16704,7 +21755,7 @@
         <v>986</v>
       </c>
       <c r="D11">
-        <f>(B11/C11)*100</f>
+        <f t="shared" si="0"/>
         <v>60.851926977687633</v>
       </c>
       <c r="E11">
@@ -16726,7 +21777,7 @@
         <f>F71</f>
         <v>60.649051048761578</v>
       </c>
-      <c r="L11" s="125">
+      <c r="L11" s="94">
         <f>'Smart AI'!E8</f>
         <v>60.756972111553786</v>
       </c>
@@ -16742,7 +21793,7 @@
         <v>1012</v>
       </c>
       <c r="D12">
-        <f>(B12/C12)*100</f>
+        <f t="shared" si="0"/>
         <v>59.288537549407117</v>
       </c>
       <c r="I12">
@@ -16756,7 +21807,7 @@
         <f>F81</f>
         <v>60.971144487304251</v>
       </c>
-      <c r="L12" s="125">
+      <c r="L12" s="94">
         <f>'Smart AI'!E9</f>
         <v>61</v>
       </c>
@@ -16772,7 +21823,7 @@
         <v>1040</v>
       </c>
       <c r="D13">
-        <f>(B13/C13)*100</f>
+        <f t="shared" si="0"/>
         <v>57.692307692307686</v>
       </c>
       <c r="I13">
@@ -16786,7 +21837,7 @@
         <f>F91</f>
         <v>60.686926580693296</v>
       </c>
-      <c r="L13" s="125">
+      <c r="L13" s="94">
         <f>'Smart AI'!E10</f>
         <v>61.183550651955862</v>
       </c>
@@ -16802,7 +21853,7 @@
         <v>997</v>
       </c>
       <c r="D14">
-        <f>(B14/C14)*100</f>
+        <f t="shared" si="0"/>
         <v>60.180541624874628</v>
       </c>
       <c r="I14">
@@ -16816,7 +21867,7 @@
         <f>F101</f>
         <v>61.343118002557752</v>
       </c>
-      <c r="L14" s="125">
+      <c r="L14" s="94">
         <f>'Smart AI'!E11</f>
         <v>61.866125760649084</v>
       </c>
@@ -16832,7 +21883,7 @@
         <v>989</v>
       </c>
       <c r="D15">
-        <f>(B15/C15)*100</f>
+        <f t="shared" si="0"/>
         <v>60.667340748230536</v>
       </c>
     </row>
@@ -16847,7 +21898,7 @@
         <v>983</v>
       </c>
       <c r="D16">
-        <f>(B16/C16)*100</f>
+        <f t="shared" si="0"/>
         <v>61.037639877924718</v>
       </c>
     </row>
@@ -16862,7 +21913,7 @@
         <v>1765</v>
       </c>
       <c r="D17">
-        <f>(B17/C17)*100</f>
+        <f t="shared" si="0"/>
         <v>33.994334277620396</v>
       </c>
     </row>
@@ -16877,7 +21928,7 @@
         <v>1005</v>
       </c>
       <c r="D18">
-        <f>(B18/C18)*100</f>
+        <f t="shared" si="0"/>
         <v>59.701492537313428</v>
       </c>
     </row>
@@ -16892,7 +21943,7 @@
         <v>1012</v>
       </c>
       <c r="D19">
-        <f>(B19/C19)*100</f>
+        <f t="shared" si="0"/>
         <v>59.782608695652172</v>
       </c>
     </row>
@@ -16907,7 +21958,7 @@
         <v>989</v>
       </c>
       <c r="D20">
-        <f>(B20/C20)*100</f>
+        <f t="shared" si="0"/>
         <v>60.161779575328609</v>
       </c>
     </row>
@@ -16922,7 +21973,7 @@
         <v>2067</v>
       </c>
       <c r="D21">
-        <f>(B21/C21)*100</f>
+        <f t="shared" si="0"/>
         <v>29.027576197387518</v>
       </c>
       <c r="E21">
@@ -16930,7 +21981,7 @@
         <v>61.037639877924718</v>
       </c>
       <c r="F21">
-        <f t="shared" ref="F12:F75" si="0">AVERAGE(D12:D21)</f>
+        <f t="shared" ref="F21:F71" si="1">AVERAGE(D12:D21)</f>
         <v>54.153415877604672</v>
       </c>
     </row>
@@ -16945,7 +21996,7 @@
         <v>1728</v>
       </c>
       <c r="D22">
-        <f>(B22/C22)*100</f>
+        <f t="shared" si="0"/>
         <v>34.722222222222221</v>
       </c>
     </row>
@@ -16960,7 +22011,7 @@
         <v>1777</v>
       </c>
       <c r="D23">
-        <f>(B23/C23)*100</f>
+        <f t="shared" si="0"/>
         <v>33.764772087788408</v>
       </c>
     </row>
@@ -16975,7 +22026,7 @@
         <v>996</v>
       </c>
       <c r="D24">
-        <f>(B24/C24)*100</f>
+        <f t="shared" si="0"/>
         <v>60.24096385542169</v>
       </c>
     </row>
@@ -16990,7 +22041,7 @@
         <v>1008</v>
       </c>
       <c r="D25">
-        <f>(B25/C25)*100</f>
+        <f t="shared" si="0"/>
         <v>59.523809523809526</v>
       </c>
     </row>
@@ -17005,7 +22056,7 @@
         <v>1008</v>
       </c>
       <c r="D26">
-        <f>(B26/C26)*100</f>
+        <f t="shared" si="0"/>
         <v>59.523809523809526</v>
       </c>
     </row>
@@ -17020,7 +22071,7 @@
         <v>999</v>
       </c>
       <c r="D27">
-        <f>(B27/C27)*100</f>
+        <f t="shared" si="0"/>
         <v>60.06006006006006</v>
       </c>
     </row>
@@ -17035,7 +22086,7 @@
         <v>1003</v>
       </c>
       <c r="D28">
-        <f>(B28/C28)*100</f>
+        <f t="shared" si="0"/>
         <v>59.82053838484547</v>
       </c>
     </row>
@@ -17050,7 +22101,7 @@
         <v>989</v>
       </c>
       <c r="D29">
-        <f>(B29/C29)*100</f>
+        <f t="shared" si="0"/>
         <v>60.667340748230536</v>
       </c>
     </row>
@@ -17065,7 +22116,7 @@
         <v>1885</v>
       </c>
       <c r="D30">
-        <f>(B30/C30)*100</f>
+        <f t="shared" si="0"/>
         <v>31.830238726790448</v>
       </c>
     </row>
@@ -17080,7 +22131,7 @@
         <v>1000</v>
       </c>
       <c r="D31">
-        <f>(B31/C31)*100</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="E31">
@@ -17088,7 +22139,7 @@
         <v>60.667340748230536</v>
       </c>
       <c r="F31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>52.015375513297784</v>
       </c>
     </row>
@@ -17103,7 +22154,7 @@
         <v>1019</v>
       </c>
       <c r="D32">
-        <f>(B32/C32)*100</f>
+        <f t="shared" si="0"/>
         <v>59.371933267909718</v>
       </c>
     </row>
@@ -17118,7 +22169,7 @@
         <v>1004</v>
       </c>
       <c r="D33">
-        <f>(B33/C33)*100</f>
+        <f t="shared" si="0"/>
         <v>60.258964143426297</v>
       </c>
     </row>
@@ -17133,7 +22184,7 @@
         <v>999</v>
       </c>
       <c r="D34">
-        <f>(B34/C34)*100</f>
+        <f t="shared" ref="D34:D65" si="2">(B34/C34)*100</f>
         <v>59.55955955955956</v>
       </c>
     </row>
@@ -17148,7 +22199,7 @@
         <v>1000</v>
       </c>
       <c r="D35">
-        <f>(B35/C35)*100</f>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
     </row>
@@ -17163,7 +22214,7 @@
         <v>1001</v>
       </c>
       <c r="D36">
-        <f>(B36/C36)*100</f>
+        <f t="shared" si="2"/>
         <v>59.940059940059939</v>
       </c>
     </row>
@@ -17178,7 +22229,7 @@
         <v>999</v>
       </c>
       <c r="D37">
-        <f>(B37/C37)*100</f>
+        <f t="shared" si="2"/>
         <v>60.06006006006006</v>
       </c>
     </row>
@@ -17193,7 +22244,7 @@
         <v>1005</v>
       </c>
       <c r="D38">
-        <f>(B38/C38)*100</f>
+        <f t="shared" si="2"/>
         <v>59.701492537313428</v>
       </c>
     </row>
@@ -17208,7 +22259,7 @@
         <v>1011</v>
       </c>
       <c r="D39">
-        <f>(B39/C39)*100</f>
+        <f t="shared" si="2"/>
         <v>58.852621167161224</v>
       </c>
     </row>
@@ -17223,7 +22274,7 @@
         <v>1010</v>
       </c>
       <c r="D40">
-        <f>(B40/C40)*100</f>
+        <f t="shared" si="2"/>
         <v>59.405940594059402</v>
       </c>
     </row>
@@ -17238,7 +22289,7 @@
         <v>990</v>
       </c>
       <c r="D41">
-        <f>(B41/C41)*100</f>
+        <f t="shared" si="2"/>
         <v>60.606060606060609</v>
       </c>
       <c r="E41">
@@ -17246,7 +22297,7 @@
         <v>60.606060606060609</v>
       </c>
       <c r="F41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>59.775669187561014</v>
       </c>
     </row>
@@ -17261,7 +22312,7 @@
         <v>1001</v>
       </c>
       <c r="D42">
-        <f>(B42/C42)*100</f>
+        <f t="shared" si="2"/>
         <v>59.940059940059939</v>
       </c>
     </row>
@@ -17276,7 +22327,7 @@
         <v>997</v>
       </c>
       <c r="D43">
-        <f>(B43/C43)*100</f>
+        <f t="shared" si="2"/>
         <v>60.682046138415245</v>
       </c>
     </row>
@@ -17291,7 +22342,7 @@
         <v>987</v>
       </c>
       <c r="D44">
-        <f>(B44/C44)*100</f>
+        <f t="shared" si="2"/>
         <v>60.790273556231</v>
       </c>
     </row>
@@ -17306,7 +22357,7 @@
         <v>992</v>
       </c>
       <c r="D45">
-        <f>(B45/C45)*100</f>
+        <f t="shared" si="2"/>
         <v>60.483870967741936</v>
       </c>
     </row>
@@ -17321,7 +22372,7 @@
         <v>991</v>
       </c>
       <c r="D46">
-        <f>(B46/C46)*100</f>
+        <f t="shared" si="2"/>
         <v>61.049445005045413</v>
       </c>
     </row>
@@ -17336,7 +22387,7 @@
         <v>998</v>
       </c>
       <c r="D47">
-        <f>(B47/C47)*100</f>
+        <f t="shared" si="2"/>
         <v>60.62124248496994</v>
       </c>
     </row>
@@ -17351,11 +22402,11 @@
         <v>975</v>
       </c>
       <c r="D48">
-        <f>(B48/C48)*100</f>
+        <f t="shared" si="2"/>
         <v>62.051282051282051</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -17366,11 +22417,11 @@
         <v>983</v>
       </c>
       <c r="D49">
-        <f>(B49/C49)*100</f>
+        <f t="shared" si="2"/>
         <v>61.037639877924718</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -17381,11 +22432,11 @@
         <v>985</v>
       </c>
       <c r="D50">
-        <f>(B50/C50)*100</f>
+        <f t="shared" si="2"/>
         <v>60.913705583756354</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -17396,7 +22447,7 @@
         <v>989</v>
       </c>
       <c r="D51">
-        <f>(B51/C51)*100</f>
+        <f t="shared" si="2"/>
         <v>60.667340748230536</v>
       </c>
       <c r="E51">
@@ -17404,11 +22455,11 @@
         <v>62.051282051282051</v>
       </c>
       <c r="F51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60.823690635365722</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -17419,11 +22470,11 @@
         <v>992</v>
       </c>
       <c r="D52">
-        <f>(B52/C52)*100</f>
+        <f t="shared" si="2"/>
         <v>60.483870967741936</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -17434,11 +22485,11 @@
         <v>1008</v>
       </c>
       <c r="D53">
-        <f>(B53/C53)*100</f>
+        <f t="shared" si="2"/>
         <v>60.019841269841265</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -17449,11 +22500,11 @@
         <v>978</v>
       </c>
       <c r="D54">
-        <f>(B54/C54)*100</f>
+        <f t="shared" si="2"/>
         <v>61.349693251533743</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -17464,14 +22515,12 @@
         <v>994</v>
       </c>
       <c r="D55">
-        <f>(B55/C55)*100</f>
+        <f t="shared" si="2"/>
         <v>60.362173038229372</v>
       </c>
-      <c r="L55" s="125">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L55" s="94"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -17482,25 +22531,11 @@
         <v>998</v>
       </c>
       <c r="D56">
-        <f>(B56/C56)*100</f>
+        <f t="shared" si="2"/>
         <v>60.120240480961925</v>
       </c>
-      <c r="K56">
-        <v>600</v>
-      </c>
-      <c r="L56">
-        <v>1010</v>
-      </c>
-      <c r="M56">
-        <f>(K56/L56)*100</f>
-        <v>59.405940594059402</v>
-      </c>
-      <c r="N56">
-        <f>$L$55 * ((K56/L56)*100) / 100</f>
-        <v>5940.5940594059402</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -17511,25 +22546,11 @@
         <v>978</v>
       </c>
       <c r="D57">
-        <f>(B57/C57)*100</f>
+        <f t="shared" si="2"/>
         <v>61.349693251533743</v>
       </c>
-      <c r="K57">
-        <v>600</v>
-      </c>
-      <c r="L57">
-        <v>1000</v>
-      </c>
-      <c r="M57">
-        <f>(K57/L57)*100</f>
-        <v>60</v>
-      </c>
-      <c r="N57">
-        <f>$L$55 * ((K57/L57)*100) / 100</f>
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -17540,11 +22561,11 @@
         <v>978</v>
       </c>
       <c r="D58">
-        <f>(B58/C58)*100</f>
+        <f t="shared" si="2"/>
         <v>61.860940695296527</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -17555,11 +22576,11 @@
         <v>983</v>
       </c>
       <c r="D59">
-        <f>(B59/C59)*100</f>
+        <f t="shared" si="2"/>
         <v>61.037639877924718</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -17570,11 +22591,11 @@
         <v>988</v>
       </c>
       <c r="D60">
-        <f>(B60/C60)*100</f>
+        <f t="shared" si="2"/>
         <v>61.234817813765183</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -17585,7 +22606,7 @@
         <v>1007</v>
       </c>
       <c r="D61">
-        <f>(B61/C61)*100</f>
+        <f t="shared" si="2"/>
         <v>59.582919563058589</v>
       </c>
       <c r="E61">
@@ -17593,11 +22614,11 @@
         <v>61.860940695296527</v>
       </c>
       <c r="F61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60.740183020988695</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -17608,11 +22629,11 @@
         <v>988</v>
       </c>
       <c r="D62">
-        <f>(B62/C62)*100</f>
+        <f t="shared" si="2"/>
         <v>60.728744939271252</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -17623,11 +22644,11 @@
         <v>994</v>
       </c>
       <c r="D63">
-        <f>(B63/C63)*100</f>
+        <f t="shared" si="2"/>
         <v>60.865191146881294</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -17638,7 +22659,7 @@
         <v>995</v>
       </c>
       <c r="D64">
-        <f>(B64/C64)*100</f>
+        <f t="shared" si="2"/>
         <v>60.301507537688437</v>
       </c>
     </row>
@@ -17653,7 +22674,7 @@
         <v>991</v>
       </c>
       <c r="D65">
-        <f>(B65/C65)*100</f>
+        <f t="shared" si="2"/>
         <v>61.049445005045413</v>
       </c>
     </row>
@@ -17668,7 +22689,7 @@
         <v>979</v>
       </c>
       <c r="D66">
-        <f>(B66/C66)*100</f>
+        <f t="shared" ref="D66:D97" si="3">(B66/C66)*100</f>
         <v>61.287027579162412</v>
       </c>
     </row>
@@ -17683,7 +22704,7 @@
         <v>982</v>
       </c>
       <c r="D67">
-        <f>(B67/C67)*100</f>
+        <f t="shared" si="3"/>
         <v>61.608961303462316</v>
       </c>
     </row>
@@ -17698,7 +22719,7 @@
         <v>991</v>
       </c>
       <c r="D68">
-        <f>(B68/C68)*100</f>
+        <f t="shared" si="3"/>
         <v>60.544904137235115</v>
       </c>
     </row>
@@ -17713,7 +22734,7 @@
         <v>994</v>
       </c>
       <c r="D69">
-        <f>(B69/C69)*100</f>
+        <f t="shared" si="3"/>
         <v>60.362173038229372</v>
       </c>
     </row>
@@ -17728,7 +22749,7 @@
         <v>991</v>
       </c>
       <c r="D70">
-        <f>(B70/C70)*100</f>
+        <f t="shared" si="3"/>
         <v>60.544904137235115</v>
       </c>
     </row>
@@ -17743,7 +22764,7 @@
         <v>1022</v>
       </c>
       <c r="D71">
-        <f>(B71/C71)*100</f>
+        <f t="shared" si="3"/>
         <v>59.197651663405097</v>
       </c>
       <c r="E71">
@@ -17751,7 +22772,7 @@
         <v>61.608961303462316</v>
       </c>
       <c r="F71">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60.649051048761578</v>
       </c>
     </row>
@@ -17766,7 +22787,7 @@
         <v>1002</v>
       </c>
       <c r="D72">
-        <f>(B72/C72)*100</f>
+        <f t="shared" si="3"/>
         <v>59.880239520958078</v>
       </c>
     </row>
@@ -17781,7 +22802,7 @@
         <v>989</v>
       </c>
       <c r="D73">
-        <f>(B73/C73)*100</f>
+        <f t="shared" si="3"/>
         <v>61.172901921132464</v>
       </c>
     </row>
@@ -17796,7 +22817,7 @@
         <v>992</v>
       </c>
       <c r="D74">
-        <f>(B74/C74)*100</f>
+        <f t="shared" si="3"/>
         <v>60.483870967741936</v>
       </c>
     </row>
@@ -17811,7 +22832,7 @@
         <v>996</v>
       </c>
       <c r="D75">
-        <f>(B75/C75)*100</f>
+        <f t="shared" si="3"/>
         <v>60.24096385542169</v>
       </c>
     </row>
@@ -17826,7 +22847,7 @@
         <v>988</v>
       </c>
       <c r="D76">
-        <f>(B76/C76)*100</f>
+        <f t="shared" si="3"/>
         <v>60.728744939271252</v>
       </c>
     </row>
@@ -17841,7 +22862,7 @@
         <v>997</v>
       </c>
       <c r="D77">
-        <f>(B77/C77)*100</f>
+        <f t="shared" si="3"/>
         <v>60.180541624874628</v>
       </c>
     </row>
@@ -17856,7 +22877,7 @@
         <v>963</v>
       </c>
       <c r="D78">
-        <f>(B78/C78)*100</f>
+        <f t="shared" si="3"/>
         <v>62.824506749740394</v>
       </c>
     </row>
@@ -17871,7 +22892,7 @@
         <v>970</v>
       </c>
       <c r="D79">
-        <f>(B79/C79)*100</f>
+        <f t="shared" si="3"/>
         <v>62.371134020618555</v>
       </c>
     </row>
@@ -17886,7 +22907,7 @@
         <v>982</v>
       </c>
       <c r="D80">
-        <f>(B80/C80)*100</f>
+        <f t="shared" si="3"/>
         <v>61.099796334012225</v>
       </c>
     </row>
@@ -17901,7 +22922,7 @@
         <v>988</v>
       </c>
       <c r="D81">
-        <f>(B81/C81)*100</f>
+        <f t="shared" si="3"/>
         <v>60.728744939271252</v>
       </c>
       <c r="E81">
@@ -17909,7 +22930,7 @@
         <v>62.824506749740394</v>
       </c>
       <c r="F81">
-        <f t="shared" ref="F76:F101" si="1">AVERAGE(D72:D81)</f>
+        <f t="shared" ref="F81:F101" si="4">AVERAGE(D72:D81)</f>
         <v>60.971144487304251</v>
       </c>
     </row>
@@ -17924,7 +22945,7 @@
         <v>976</v>
       </c>
       <c r="D82">
-        <f>(B82/C82)*100</f>
+        <f t="shared" si="3"/>
         <v>61.987704918032783</v>
       </c>
     </row>
@@ -17939,7 +22960,7 @@
         <v>997</v>
       </c>
       <c r="D83">
-        <f>(B83/C83)*100</f>
+        <f t="shared" si="3"/>
         <v>60.180541624874628</v>
       </c>
     </row>
@@ -17954,7 +22975,7 @@
         <v>1014</v>
       </c>
       <c r="D84">
-        <f>(B84/C84)*100</f>
+        <f t="shared" si="3"/>
         <v>59.171597633136095</v>
       </c>
     </row>
@@ -17969,7 +22990,7 @@
         <v>991</v>
       </c>
       <c r="D85">
-        <f>(B85/C85)*100</f>
+        <f t="shared" si="3"/>
         <v>60.544904137235115</v>
       </c>
     </row>
@@ -17984,7 +23005,7 @@
         <v>980</v>
       </c>
       <c r="D86">
-        <f>(B86/C86)*100</f>
+        <f t="shared" si="3"/>
         <v>61.224489795918366</v>
       </c>
     </row>
@@ -17999,7 +23020,7 @@
         <v>992</v>
       </c>
       <c r="D87">
-        <f>(B87/C87)*100</f>
+        <f t="shared" si="3"/>
         <v>60.483870967741936</v>
       </c>
     </row>
@@ -18014,7 +23035,7 @@
         <v>996</v>
       </c>
       <c r="D88">
-        <f>(B88/C88)*100</f>
+        <f t="shared" si="3"/>
         <v>60.742971887550198</v>
       </c>
     </row>
@@ -18029,7 +23050,7 @@
         <v>984</v>
       </c>
       <c r="D89">
-        <f>(B89/C89)*100</f>
+        <f t="shared" si="3"/>
         <v>61.483739837398375</v>
       </c>
     </row>
@@ -18044,7 +23065,7 @@
         <v>1000</v>
       </c>
       <c r="D90">
-        <f>(B90/C90)*100</f>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
     </row>
@@ -18059,7 +23080,7 @@
         <v>991</v>
       </c>
       <c r="D91">
-        <f>(B91/C91)*100</f>
+        <f t="shared" si="3"/>
         <v>61.049445005045413</v>
       </c>
       <c r="E91">
@@ -18067,7 +23088,7 @@
         <v>61.987704918032783</v>
       </c>
       <c r="F91">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>60.686926580693296</v>
       </c>
     </row>
@@ -18082,7 +23103,7 @@
         <v>991</v>
       </c>
       <c r="D92">
-        <f>(B92/C92)*100</f>
+        <f t="shared" si="3"/>
         <v>61.049445005045413</v>
       </c>
     </row>
@@ -18097,7 +23118,7 @@
         <v>995</v>
       </c>
       <c r="D93">
-        <f>(B93/C93)*100</f>
+        <f t="shared" si="3"/>
         <v>60.804020100502512</v>
       </c>
     </row>
@@ -18112,7 +23133,7 @@
         <v>965</v>
       </c>
       <c r="D94">
-        <f>(B94/C94)*100</f>
+        <f t="shared" si="3"/>
         <v>62.694300518134717</v>
       </c>
     </row>
@@ -18127,7 +23148,7 @@
         <v>984</v>
       </c>
       <c r="D95">
-        <f>(B95/C95)*100</f>
+        <f t="shared" si="3"/>
         <v>60.975609756097562</v>
       </c>
     </row>
@@ -18142,7 +23163,7 @@
         <v>986</v>
       </c>
       <c r="D96">
-        <f>(B96/C96)*100</f>
+        <f t="shared" si="3"/>
         <v>60.851926977687633</v>
       </c>
     </row>
@@ -18157,7 +23178,7 @@
         <v>984</v>
       </c>
       <c r="D97">
-        <f>(B97/C97)*100</f>
+        <f t="shared" si="3"/>
         <v>61.483739837398375</v>
       </c>
     </row>
@@ -18172,7 +23193,7 @@
         <v>985</v>
       </c>
       <c r="D98">
-        <f>(B98/C98)*100</f>
+        <f t="shared" ref="D98:D129" si="5">(B98/C98)*100</f>
         <v>61.421319796954307</v>
       </c>
     </row>
@@ -18187,7 +23208,7 @@
         <v>1014</v>
       </c>
       <c r="D99">
-        <f>(B99/C99)*100</f>
+        <f t="shared" si="5"/>
         <v>59.664694280078898</v>
       </c>
     </row>
@@ -18202,7 +23223,7 @@
         <v>970</v>
       </c>
       <c r="D100">
-        <f>(B100/C100)*100</f>
+        <f t="shared" si="5"/>
         <v>62.371134020618555</v>
       </c>
     </row>
@@ -18217,7 +23238,7 @@
         <v>974</v>
       </c>
       <c r="D101">
-        <f>(B101/C101)*100</f>
+        <f t="shared" si="5"/>
         <v>62.114989733059545</v>
       </c>
       <c r="E101">
@@ -18225,7 +23246,7 @@
         <v>62.694300518134717</v>
       </c>
       <c r="F101">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>61.343118002557752</v>
       </c>
     </row>
@@ -18235,7 +23256,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87CEF1FA-4595-443A-91BF-3099344F92DA}">
   <dimension ref="A1:A2"/>
   <sheetViews>
